--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2460" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="12660" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="159">
   <si>
     <t>INT_strength</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -660,6 +660,10 @@
   </si>
   <si>
     <t>ingo_1:1,redCrystal_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_leadership</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1368">
+  <cellStyleXfs count="1386">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -856,6 +860,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2233,7 +2255,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1368">
+  <cellStyles count="1386">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2920,6 +2942,15 @@
     <cellStyle name="超链接" xfId="1362" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1364" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1384" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3599,6 +3630,15 @@
     <cellStyle name="访问过的超链接" xfId="1363" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1365" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1385" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4050,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6957,10 +6997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6970,7 +7010,7 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -6983,8 +7023,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -6997,8 +7040,11 @@
       <c r="D2" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -7011,8 +7057,11 @@
       <c r="D3" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -7025,8 +7074,11 @@
       <c r="D4" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -7039,8 +7091,11 @@
       <c r="D5" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -7053,8 +7108,11 @@
       <c r="D6" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -7067,8 +7125,11 @@
       <c r="D7" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -7081,8 +7142,11 @@
       <c r="D8" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -7095,8 +7159,11 @@
       <c r="D9" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -7109,8 +7176,11 @@
       <c r="D10" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -7123,8 +7193,11 @@
       <c r="D11" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -7137,8 +7210,11 @@
       <c r="D12" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -7151,8 +7227,11 @@
       <c r="D13" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -7165,8 +7244,11 @@
       <c r="D14" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -7179,8 +7261,11 @@
       <c r="D15" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -7193,8 +7278,11 @@
       <c r="D16" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -7207,8 +7295,11 @@
       <c r="D17" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -7221,8 +7312,11 @@
       <c r="D18" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -7235,8 +7329,11 @@
       <c r="D19" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -7249,8 +7346,11 @@
       <c r="D20" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="E20" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -7262,6 +7362,9 @@
       </c>
       <c r="D21" s="2">
         <v>120</v>
+      </c>
+      <c r="E21" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -7445,10 +7548,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7457,7 +7560,7 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -7470,8 +7573,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -7484,8 +7590,11 @@
       <c r="D2" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -7498,8 +7607,11 @@
       <c r="D3" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -7512,8 +7624,11 @@
       <c r="D4" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -7526,8 +7641,11 @@
       <c r="D5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -7540,8 +7658,11 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -7554,8 +7675,11 @@
       <c r="D7" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -7568,8 +7692,11 @@
       <c r="D8" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -7582,8 +7709,11 @@
       <c r="D9" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -7596,8 +7726,11 @@
       <c r="D10" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -7610,8 +7743,11 @@
       <c r="D11" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -7624,8 +7760,11 @@
       <c r="D12" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -7638,8 +7777,11 @@
       <c r="D13" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -7652,8 +7794,11 @@
       <c r="D14" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -7666,8 +7811,11 @@
       <c r="D15" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -7680,8 +7828,11 @@
       <c r="D16" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -7694,8 +7845,11 @@
       <c r="D17" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -7708,8 +7862,11 @@
       <c r="D18" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -7722,8 +7879,11 @@
       <c r="D19" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -7736,8 +7896,11 @@
       <c r="D20" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="E20" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -7750,38 +7913,41 @@
       <c r="D21" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="E21" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -8035,10 +8201,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8047,7 +8213,7 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -8060,8 +8226,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -8074,8 +8243,11 @@
       <c r="D2" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -8088,8 +8260,11 @@
       <c r="D3" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -8102,8 +8277,11 @@
       <c r="D4" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -8116,8 +8294,11 @@
       <c r="D5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -8130,8 +8311,11 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -8144,8 +8328,11 @@
       <c r="D7" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -8158,8 +8345,11 @@
       <c r="D8" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -8172,8 +8362,11 @@
       <c r="D9" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -8186,8 +8379,11 @@
       <c r="D10" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -8200,8 +8396,11 @@
       <c r="D11" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -8214,8 +8413,11 @@
       <c r="D12" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -8228,8 +8430,11 @@
       <c r="D13" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -8242,8 +8447,11 @@
       <c r="D14" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -8256,8 +8464,11 @@
       <c r="D15" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -8270,8 +8481,11 @@
       <c r="D16" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -8284,8 +8498,11 @@
       <c r="D17" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -8298,8 +8515,11 @@
       <c r="D18" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -8312,8 +8532,11 @@
       <c r="D19" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -8326,8 +8549,11 @@
       <c r="D20" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="E20" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -8340,56 +8566,59 @@
       <c r="D21" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="E21" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -8785,10 +9014,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8797,7 +9026,7 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -8810,8 +9039,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -8824,8 +9056,11 @@
       <c r="D2" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -8838,8 +9073,11 @@
       <c r="D3" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -8852,8 +9090,11 @@
       <c r="D4" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -8866,8 +9107,11 @@
       <c r="D5" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -8880,8 +9124,11 @@
       <c r="D6" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -8894,8 +9141,11 @@
       <c r="D7" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -8908,8 +9158,11 @@
       <c r="D8" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -8922,8 +9175,11 @@
       <c r="D9" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -8936,8 +9192,11 @@
       <c r="D10" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -8950,8 +9209,11 @@
       <c r="D11" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -8964,8 +9226,11 @@
       <c r="D12" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -8978,8 +9243,11 @@
       <c r="D13" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -8992,8 +9260,11 @@
       <c r="D14" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -9006,8 +9277,11 @@
       <c r="D15" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -9020,8 +9294,11 @@
       <c r="D16" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -9034,8 +9311,11 @@
       <c r="D17" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -9048,8 +9328,11 @@
       <c r="D18" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -9062,38 +9345,41 @@
       <c r="D19" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -9347,10 +9633,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9361,7 +9647,7 @@
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -9374,8 +9660,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -9388,8 +9677,11 @@
       <c r="D2" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -9402,8 +9694,11 @@
       <c r="D3" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -9416,8 +9711,11 @@
       <c r="D4" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -9430,8 +9728,11 @@
       <c r="D5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -9444,8 +9745,11 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -9458,8 +9762,11 @@
       <c r="D7" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -9472,8 +9779,11 @@
       <c r="D8" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -9486,8 +9796,11 @@
       <c r="D9" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -9500,8 +9813,11 @@
       <c r="D10" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -9514,8 +9830,11 @@
       <c r="D11" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -9528,8 +9847,11 @@
       <c r="D12" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -9542,8 +9864,11 @@
       <c r="D13" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -9556,8 +9881,11 @@
       <c r="D14" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -9570,8 +9898,11 @@
       <c r="D15" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -9584,8 +9915,11 @@
       <c r="D16" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -9598,8 +9932,11 @@
       <c r="D17" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -9612,8 +9949,11 @@
       <c r="D18" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -9626,38 +9966,41 @@
       <c r="D19" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -9911,10 +10254,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9923,7 +10266,7 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -9936,8 +10279,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -9950,8 +10296,11 @@
       <c r="D2" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -9964,8 +10313,11 @@
       <c r="D3" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -9978,8 +10330,11 @@
       <c r="D4" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -9992,8 +10347,11 @@
       <c r="D5" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -10006,8 +10364,11 @@
       <c r="D6" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -10020,8 +10381,11 @@
       <c r="D7" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -10034,8 +10398,11 @@
       <c r="D8" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -10048,8 +10415,11 @@
       <c r="D9" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -10062,8 +10432,11 @@
       <c r="D10" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -10076,8 +10449,11 @@
       <c r="D11" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -10090,8 +10466,11 @@
       <c r="D12" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -10104,8 +10483,11 @@
       <c r="D13" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -10118,8 +10500,11 @@
       <c r="D14" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -10132,8 +10517,11 @@
       <c r="D15" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -10146,8 +10534,11 @@
       <c r="D16" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -10160,8 +10551,11 @@
       <c r="D17" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -10174,8 +10568,11 @@
       <c r="D18" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -10188,62 +10585,65 @@
       <c r="D19" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
+    <workbookView xWindow="3760" yWindow="2460" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="158">
   <si>
     <t>INT_strength</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -660,10 +660,6 @@
   </si>
   <si>
     <t>ingo_1:1,redCrystal_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_leadership</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +841,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1386">
+  <cellStyleXfs count="1368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -860,24 +856,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2255,7 +2233,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1386">
+  <cellStyles count="1368">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2942,15 +2920,6 @@
     <cellStyle name="超链接" xfId="1362" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1364" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1366" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1368" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1370" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1378" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1382" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1384" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3630,15 +3599,6 @@
     <cellStyle name="访问过的超链接" xfId="1363" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1365" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1385" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4090,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C60" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6997,10 +6957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7010,7 +6970,7 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -7023,11 +6983,8 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -7040,11 +6997,8 @@
       <c r="D2" s="2">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -7057,11 +7011,8 @@
       <c r="D3" s="2">
         <v>16</v>
       </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -7074,11 +7025,8 @@
       <c r="D4" s="2">
         <v>16</v>
       </c>
-      <c r="E4" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -7091,11 +7039,8 @@
       <c r="D5" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -7108,11 +7053,8 @@
       <c r="D6" s="2">
         <v>24</v>
       </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -7125,11 +7067,8 @@
       <c r="D7" s="2">
         <v>30</v>
       </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -7142,11 +7081,8 @@
       <c r="D8" s="2">
         <v>36</v>
       </c>
-      <c r="E8" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -7159,11 +7095,8 @@
       <c r="D9" s="2">
         <v>42</v>
       </c>
-      <c r="E9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -7176,11 +7109,8 @@
       <c r="D10" s="2">
         <v>48</v>
       </c>
-      <c r="E10" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -7193,11 +7123,8 @@
       <c r="D11" s="2">
         <v>56</v>
       </c>
-      <c r="E11" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -7210,11 +7137,8 @@
       <c r="D12" s="2">
         <v>62</v>
       </c>
-      <c r="E12" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -7227,11 +7151,8 @@
       <c r="D13" s="2">
         <v>68</v>
       </c>
-      <c r="E13" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -7244,11 +7165,8 @@
       <c r="D14" s="2">
         <v>74</v>
       </c>
-      <c r="E14" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -7261,11 +7179,8 @@
       <c r="D15" s="2">
         <v>80</v>
       </c>
-      <c r="E15" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -7278,11 +7193,8 @@
       <c r="D16" s="2">
         <v>90</v>
       </c>
-      <c r="E16" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -7295,11 +7207,8 @@
       <c r="D17" s="2">
         <v>96</v>
       </c>
-      <c r="E17" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -7312,11 +7221,8 @@
       <c r="D18" s="2">
         <v>102</v>
       </c>
-      <c r="E18" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -7329,11 +7235,8 @@
       <c r="D19" s="2">
         <v>108</v>
       </c>
-      <c r="E19" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -7346,11 +7249,8 @@
       <c r="D20" s="2">
         <v>114</v>
       </c>
-      <c r="E20" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -7362,9 +7262,6 @@
       </c>
       <c r="D21" s="2">
         <v>120</v>
-      </c>
-      <c r="E21" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -7548,10 +7445,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7560,7 +7457,7 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -7573,11 +7470,8 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -7590,11 +7484,8 @@
       <c r="D2" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -7607,11 +7498,8 @@
       <c r="D3" s="2">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -7624,11 +7512,8 @@
       <c r="D4" s="2">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -7641,11 +7526,8 @@
       <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -7658,11 +7540,8 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -7675,11 +7554,8 @@
       <c r="D7" s="2">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -7692,11 +7568,8 @@
       <c r="D8" s="2">
         <v>27</v>
       </c>
-      <c r="E8" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -7709,11 +7582,8 @@
       <c r="D9" s="2">
         <v>32</v>
       </c>
-      <c r="E9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -7726,11 +7596,8 @@
       <c r="D10" s="2">
         <v>36</v>
       </c>
-      <c r="E10" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -7743,11 +7610,8 @@
       <c r="D11" s="2">
         <v>42</v>
       </c>
-      <c r="E11" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -7760,11 +7624,8 @@
       <c r="D12" s="2">
         <v>47</v>
       </c>
-      <c r="E12" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -7777,11 +7638,8 @@
       <c r="D13" s="2">
         <v>51</v>
       </c>
-      <c r="E13" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -7794,11 +7652,8 @@
       <c r="D14" s="2">
         <v>56</v>
       </c>
-      <c r="E14" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -7811,11 +7666,8 @@
       <c r="D15" s="2">
         <v>60</v>
       </c>
-      <c r="E15" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -7828,11 +7680,8 @@
       <c r="D16" s="2">
         <v>68</v>
       </c>
-      <c r="E16" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -7845,11 +7694,8 @@
       <c r="D17" s="2">
         <v>72</v>
       </c>
-      <c r="E17" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -7862,11 +7708,8 @@
       <c r="D18" s="2">
         <v>77</v>
       </c>
-      <c r="E18" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -7879,11 +7722,8 @@
       <c r="D19" s="2">
         <v>81</v>
       </c>
-      <c r="E19" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -7896,11 +7736,8 @@
       <c r="D20" s="2">
         <v>86</v>
       </c>
-      <c r="E20" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -7913,41 +7750,38 @@
       <c r="D21" s="5">
         <v>90</v>
       </c>
-      <c r="E21" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -8201,10 +8035,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8213,7 +8047,7 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -8226,11 +8060,8 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -8243,11 +8074,8 @@
       <c r="D2" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -8260,11 +8088,8 @@
       <c r="D3" s="2">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -8277,11 +8102,8 @@
       <c r="D4" s="2">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -8294,11 +8116,8 @@
       <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -8311,11 +8130,8 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -8328,11 +8144,8 @@
       <c r="D7" s="2">
         <v>23</v>
       </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -8345,11 +8158,8 @@
       <c r="D8" s="2">
         <v>27</v>
       </c>
-      <c r="E8" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -8362,11 +8172,8 @@
       <c r="D9" s="2">
         <v>32</v>
       </c>
-      <c r="E9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -8379,11 +8186,8 @@
       <c r="D10" s="2">
         <v>36</v>
       </c>
-      <c r="E10" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -8396,11 +8200,8 @@
       <c r="D11" s="2">
         <v>42</v>
       </c>
-      <c r="E11" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -8413,11 +8214,8 @@
       <c r="D12" s="2">
         <v>47</v>
       </c>
-      <c r="E12" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -8430,11 +8228,8 @@
       <c r="D13" s="2">
         <v>51</v>
       </c>
-      <c r="E13" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -8447,11 +8242,8 @@
       <c r="D14" s="2">
         <v>56</v>
       </c>
-      <c r="E14" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -8464,11 +8256,8 @@
       <c r="D15" s="2">
         <v>60</v>
       </c>
-      <c r="E15" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -8481,11 +8270,8 @@
       <c r="D16" s="2">
         <v>68</v>
       </c>
-      <c r="E16" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -8498,11 +8284,8 @@
       <c r="D17" s="2">
         <v>72</v>
       </c>
-      <c r="E17" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -8515,11 +8298,8 @@
       <c r="D18" s="2">
         <v>77</v>
       </c>
-      <c r="E18" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -8532,11 +8312,8 @@
       <c r="D19" s="2">
         <v>81</v>
       </c>
-      <c r="E19" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -8549,11 +8326,8 @@
       <c r="D20" s="2">
         <v>86</v>
       </c>
-      <c r="E20" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -8566,59 +8340,56 @@
       <c r="D21" s="5">
         <v>90</v>
       </c>
-      <c r="E21" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -9014,10 +8785,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9026,7 +8797,7 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -9039,11 +8810,8 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -9056,11 +8824,8 @@
       <c r="D2" s="2">
         <v>20</v>
       </c>
-      <c r="E2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -9073,11 +8838,8 @@
       <c r="D3" s="2">
         <v>24</v>
       </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -9090,11 +8852,8 @@
       <c r="D4" s="2">
         <v>29</v>
       </c>
-      <c r="E4" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -9107,11 +8866,8 @@
       <c r="D5" s="2">
         <v>36</v>
       </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -9124,11 +8880,8 @@
       <c r="D6" s="2">
         <v>44</v>
       </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -9141,11 +8894,8 @@
       <c r="D7" s="2">
         <v>51</v>
       </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -9158,11 +8908,8 @@
       <c r="D8" s="2">
         <v>58</v>
       </c>
-      <c r="E8" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -9175,11 +8922,8 @@
       <c r="D9" s="2">
         <v>68</v>
       </c>
-      <c r="E9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -9192,11 +8936,8 @@
       <c r="D10" s="2">
         <v>75</v>
       </c>
-      <c r="E10" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -9209,11 +8950,8 @@
       <c r="D11" s="2">
         <v>82</v>
       </c>
-      <c r="E11" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -9226,11 +8964,8 @@
       <c r="D12" s="2">
         <v>89</v>
       </c>
-      <c r="E12" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -9243,11 +8978,8 @@
       <c r="D13" s="2">
         <v>96</v>
       </c>
-      <c r="E13" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -9260,11 +8992,8 @@
       <c r="D14" s="2">
         <v>108</v>
       </c>
-      <c r="E14" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -9277,11 +9006,8 @@
       <c r="D15" s="2">
         <v>116</v>
       </c>
-      <c r="E15" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -9294,11 +9020,8 @@
       <c r="D16" s="2">
         <v>123</v>
       </c>
-      <c r="E16" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -9311,11 +9034,8 @@
       <c r="D17" s="2">
         <v>130</v>
       </c>
-      <c r="E17" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -9328,11 +9048,8 @@
       <c r="D18" s="2">
         <v>137</v>
       </c>
-      <c r="E18" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -9345,41 +9062,38 @@
       <c r="D19" s="2">
         <v>144</v>
       </c>
-      <c r="E19" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -9633,10 +9347,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9647,7 +9361,7 @@
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -9660,11 +9374,8 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -9677,11 +9388,8 @@
       <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -9694,11 +9402,8 @@
       <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -9711,11 +9416,8 @@
       <c r="D4" s="2">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -9728,11 +9430,8 @@
       <c r="D5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -9745,11 +9444,8 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -9762,11 +9458,8 @@
       <c r="D7" s="2">
         <v>21</v>
       </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -9779,11 +9472,8 @@
       <c r="D8" s="2">
         <v>24</v>
       </c>
-      <c r="E8" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -9796,11 +9486,8 @@
       <c r="D9" s="2">
         <v>28</v>
       </c>
-      <c r="E9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -9813,11 +9500,8 @@
       <c r="D10" s="2">
         <v>31</v>
       </c>
-      <c r="E10" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -9830,11 +9514,8 @@
       <c r="D11" s="2">
         <v>34</v>
       </c>
-      <c r="E11" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -9847,11 +9528,8 @@
       <c r="D12" s="2">
         <v>37</v>
       </c>
-      <c r="E12" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -9864,11 +9542,8 @@
       <c r="D13" s="2">
         <v>40</v>
       </c>
-      <c r="E13" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -9881,11 +9556,8 @@
       <c r="D14" s="2">
         <v>45</v>
       </c>
-      <c r="E14" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -9898,11 +9570,8 @@
       <c r="D15" s="2">
         <v>48</v>
       </c>
-      <c r="E15" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -9915,11 +9584,8 @@
       <c r="D16" s="2">
         <v>51</v>
       </c>
-      <c r="E16" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -9932,11 +9598,8 @@
       <c r="D17" s="2">
         <v>54</v>
       </c>
-      <c r="E17" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -9949,11 +9612,8 @@
       <c r="D18" s="2">
         <v>57</v>
       </c>
-      <c r="E18" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -9966,41 +9626,38 @@
       <c r="D19" s="2">
         <v>60</v>
       </c>
-      <c r="E19" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -10254,10 +9911,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10266,7 +9923,7 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -10279,11 +9936,8 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -10296,11 +9950,8 @@
       <c r="D2" s="2">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -10313,11 +9964,8 @@
       <c r="D3" s="2">
         <v>16</v>
       </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -10330,11 +9978,8 @@
       <c r="D4" s="2">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -10347,11 +9992,8 @@
       <c r="D5" s="2">
         <v>24</v>
       </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -10364,11 +10006,8 @@
       <c r="D6" s="2">
         <v>29</v>
       </c>
-      <c r="E6" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -10381,11 +10020,8 @@
       <c r="D7" s="2">
         <v>34</v>
       </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -10398,11 +10034,8 @@
       <c r="D8" s="2">
         <v>39</v>
       </c>
-      <c r="E8" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -10415,11 +10048,8 @@
       <c r="D9" s="2">
         <v>45</v>
       </c>
-      <c r="E9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -10432,11 +10062,8 @@
       <c r="D10" s="2">
         <v>50</v>
       </c>
-      <c r="E10" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -10449,11 +10076,8 @@
       <c r="D11" s="2">
         <v>55</v>
       </c>
-      <c r="E11" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -10466,11 +10090,8 @@
       <c r="D12" s="2">
         <v>60</v>
       </c>
-      <c r="E12" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -10483,11 +10104,8 @@
       <c r="D13" s="2">
         <v>64</v>
       </c>
-      <c r="E13" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -10500,11 +10118,8 @@
       <c r="D14" s="2">
         <v>72</v>
       </c>
-      <c r="E14" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -10517,11 +10132,8 @@
       <c r="D15" s="2">
         <v>77</v>
       </c>
-      <c r="E15" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
@@ -10534,11 +10146,8 @@
       <c r="D16" s="2">
         <v>82</v>
       </c>
-      <c r="E16" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -10551,11 +10160,8 @@
       <c r="D17" s="2">
         <v>87</v>
       </c>
-      <c r="E17" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -10568,11 +10174,8 @@
       <c r="D18" s="2">
         <v>92</v>
       </c>
-      <c r="E18" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -10585,65 +10188,62 @@
       <c r="D19" s="5">
         <v>96</v>
       </c>
-      <c r="E19" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2460" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="7380" yWindow="2340" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="159">
   <si>
     <t>INT_strength</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -79,70 +79,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>addInfantryAtk</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>addInfantryHp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>addInfantryLoad</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>addInfantryMarch</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>addHunterAtk</t>
-  </si>
-  <si>
-    <t>addHunterHp</t>
-  </si>
-  <si>
-    <t>addHunterLoad</t>
-  </si>
-  <si>
-    <t>addHunterMarch</t>
-  </si>
-  <si>
-    <t>addCavalryAtk</t>
-  </si>
-  <si>
-    <t>addCavalryHp</t>
-  </si>
-  <si>
-    <t>addCavalryLoad</t>
-  </si>
-  <si>
-    <t>addCavalryMarch</t>
-  </si>
-  <si>
-    <t>addSiegeAtk</t>
-  </si>
-  <si>
-    <t>addSiegeHp</t>
-  </si>
-  <si>
-    <t>addSiegeLoad</t>
-  </si>
-  <si>
-    <t>addSiegeMarch</t>
-  </si>
-  <si>
-    <t>addCasualtyRate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_buffEffect</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>addMarchSize</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1_0</t>
   </si>
   <si>
@@ -660,6 +600,82 @@
   </si>
   <si>
     <t>ingo_1:1,redCrystal_1:1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_leadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryHpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryMarchAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hHunterAtkAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunterHpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunterLoadAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunterMarchAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryAtkAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryHpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryLoadAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalryMarchAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeAtkAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeHpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeLoadAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siegeMarchAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryLoadAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>troopSizeAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>recoverAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +857,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1368">
+  <cellStyleXfs count="1392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -856,6 +872,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2233,7 +2273,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1368">
+  <cellStyles count="1392">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2920,6 +2960,18 @@
     <cellStyle name="超链接" xfId="1362" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1364" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1390" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3599,6 +3651,18 @@
     <cellStyle name="访问过的超链接" xfId="1363" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1365" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1391" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4050,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4068,48 +4132,48 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2">
         <v>15</v>
@@ -4121,7 +4185,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2">
         <v>320</v>
@@ -4132,16 +4196,16 @@
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2">
         <v>15</v>
@@ -4153,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2">
         <v>320</v>
@@ -4164,16 +4228,16 @@
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -4185,7 +4249,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I4" s="2">
         <v>320</v>
@@ -4196,16 +4260,16 @@
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2">
         <v>30</v>
@@ -4217,7 +4281,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I5" s="2">
         <v>1280</v>
@@ -4228,16 +4292,16 @@
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2">
         <v>30</v>
@@ -4249,7 +4313,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I6" s="2">
         <v>1280</v>
@@ -4260,16 +4324,16 @@
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2">
         <v>30</v>
@@ -4281,7 +4345,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I7" s="2">
         <v>1280</v>
@@ -4292,16 +4356,16 @@
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2">
         <v>75</v>
@@ -4313,7 +4377,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I8" s="2">
         <v>5120</v>
@@ -4324,16 +4388,16 @@
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2">
         <v>75</v>
@@ -4345,7 +4409,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I9" s="2">
         <v>5120</v>
@@ -4356,16 +4420,16 @@
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2">
         <v>75</v>
@@ -4377,7 +4441,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I10" s="2">
         <v>5120</v>
@@ -4388,16 +4452,16 @@
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2">
         <v>150</v>
@@ -4409,7 +4473,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I11" s="2">
         <v>20480</v>
@@ -4420,16 +4484,16 @@
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2">
         <v>150</v>
@@ -4441,7 +4505,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I12" s="2">
         <v>20480</v>
@@ -4452,16 +4516,16 @@
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2">
         <v>150</v>
@@ -4473,7 +4537,7 @@
         <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I13" s="2">
         <v>20480</v>
@@ -4484,16 +4548,16 @@
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2">
         <v>300</v>
@@ -4505,7 +4569,7 @@
         <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I14" s="2">
         <v>81920</v>
@@ -4516,16 +4580,16 @@
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2">
         <v>300</v>
@@ -4537,7 +4601,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I15" s="2">
         <v>81920</v>
@@ -4548,16 +4612,16 @@
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2">
         <v>300</v>
@@ -4569,7 +4633,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I16" s="2">
         <v>81920</v>
@@ -4580,16 +4644,16 @@
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2">
         <v>30</v>
@@ -4601,7 +4665,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I17" s="2">
         <v>1280</v>
@@ -4612,16 +4676,16 @@
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2">
         <v>30</v>
@@ -4633,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I18" s="2">
         <v>1280</v>
@@ -4644,16 +4708,16 @@
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2">
         <v>30</v>
@@ -4665,7 +4729,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I19" s="2">
         <v>1280</v>
@@ -4676,16 +4740,16 @@
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2">
         <v>75</v>
@@ -4697,7 +4761,7 @@
         <v>25</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I20" s="2">
         <v>5120</v>
@@ -4708,16 +4772,16 @@
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2">
         <v>75</v>
@@ -4729,7 +4793,7 @@
         <v>25</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I21" s="2">
         <v>5120</v>
@@ -4740,16 +4804,16 @@
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2">
         <v>75</v>
@@ -4761,7 +4825,7 @@
         <v>25</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I22" s="2">
         <v>5120</v>
@@ -4772,16 +4836,16 @@
     </row>
     <row r="23" spans="1:10" ht="20" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2">
         <v>150</v>
@@ -4793,7 +4857,7 @@
         <v>50</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I23" s="2">
         <v>20480</v>
@@ -4804,16 +4868,16 @@
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2">
         <v>150</v>
@@ -4825,7 +4889,7 @@
         <v>50</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I24" s="2">
         <v>20480</v>
@@ -4836,16 +4900,16 @@
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2">
         <v>150</v>
@@ -4857,7 +4921,7 @@
         <v>50</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I25" s="2">
         <v>20480</v>
@@ -4868,16 +4932,16 @@
     </row>
     <row r="26" spans="1:10" ht="20" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2">
         <v>300</v>
@@ -4889,7 +4953,7 @@
         <v>100</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I26" s="2">
         <v>81920</v>
@@ -4900,16 +4964,16 @@
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2">
         <v>300</v>
@@ -4921,7 +4985,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I27" s="2">
         <v>81920</v>
@@ -4932,16 +4996,16 @@
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2">
         <v>300</v>
@@ -4953,7 +5017,7 @@
         <v>100</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I28" s="2">
         <v>81920</v>
@@ -4964,16 +5028,16 @@
     </row>
     <row r="29" spans="1:10" ht="20" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2">
         <v>30</v>
@@ -4985,7 +5049,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I29" s="2">
         <v>1280</v>
@@ -4996,16 +5060,16 @@
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2">
         <v>30</v>
@@ -5017,7 +5081,7 @@
         <v>10</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I30" s="2">
         <v>1280</v>
@@ -5028,16 +5092,16 @@
     </row>
     <row r="31" spans="1:10" ht="20" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2">
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E31" s="2">
         <v>30</v>
@@ -5049,7 +5113,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I31" s="2">
         <v>1280</v>
@@ -5060,16 +5124,16 @@
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2">
         <v>75</v>
@@ -5081,7 +5145,7 @@
         <v>25</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I32" s="2">
         <v>5120</v>
@@ -5092,16 +5156,16 @@
     </row>
     <row r="33" spans="1:10" ht="20" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2">
         <v>75</v>
@@ -5113,7 +5177,7 @@
         <v>25</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I33" s="2">
         <v>5120</v>
@@ -5124,16 +5188,16 @@
     </row>
     <row r="34" spans="1:10" ht="20" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2">
         <v>75</v>
@@ -5145,7 +5209,7 @@
         <v>25</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I34" s="2">
         <v>5120</v>
@@ -5156,16 +5220,16 @@
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2">
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2">
         <v>150</v>
@@ -5177,7 +5241,7 @@
         <v>50</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I35" s="2">
         <v>20480</v>
@@ -5188,16 +5252,16 @@
     </row>
     <row r="36" spans="1:10" ht="20" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2">
         <v>150</v>
@@ -5209,7 +5273,7 @@
         <v>50</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I36" s="2">
         <v>20480</v>
@@ -5220,16 +5284,16 @@
     </row>
     <row r="37" spans="1:10" ht="20" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2">
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2">
         <v>150</v>
@@ -5241,7 +5305,7 @@
         <v>50</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I37" s="2">
         <v>20480</v>
@@ -5252,16 +5316,16 @@
     </row>
     <row r="38" spans="1:10" ht="20" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E38" s="2">
         <v>300</v>
@@ -5273,7 +5337,7 @@
         <v>100</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I38" s="2">
         <v>81920</v>
@@ -5284,16 +5348,16 @@
     </row>
     <row r="39" spans="1:10" ht="20" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2">
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2">
         <v>300</v>
@@ -5305,7 +5369,7 @@
         <v>100</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I39" s="2">
         <v>81920</v>
@@ -5316,16 +5380,16 @@
     </row>
     <row r="40" spans="1:10" ht="20" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E40" s="2">
         <v>300</v>
@@ -5337,7 +5401,7 @@
         <v>100</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I40" s="2">
         <v>81920</v>
@@ -5348,16 +5412,16 @@
     </row>
     <row r="41" spans="1:10" ht="20" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E41" s="2">
         <v>30</v>
@@ -5369,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I41" s="2">
         <v>1280</v>
@@ -5380,16 +5444,16 @@
     </row>
     <row r="42" spans="1:10" ht="20" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2">
         <v>30</v>
@@ -5401,7 +5465,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I42" s="2">
         <v>1280</v>
@@ -5412,16 +5476,16 @@
     </row>
     <row r="43" spans="1:10" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E43" s="2">
         <v>30</v>
@@ -5433,7 +5497,7 @@
         <v>10</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I43" s="2">
         <v>1280</v>
@@ -5444,16 +5508,16 @@
     </row>
     <row r="44" spans="1:10" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2">
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E44" s="2">
         <v>75</v>
@@ -5465,7 +5529,7 @@
         <v>25</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I44" s="2">
         <v>5120</v>
@@ -5476,16 +5540,16 @@
     </row>
     <row r="45" spans="1:10" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E45" s="2">
         <v>75</v>
@@ -5497,7 +5561,7 @@
         <v>25</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I45" s="2">
         <v>5120</v>
@@ -5508,16 +5572,16 @@
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E46" s="2">
         <v>75</v>
@@ -5529,7 +5593,7 @@
         <v>25</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I46" s="2">
         <v>5120</v>
@@ -5540,16 +5604,16 @@
     </row>
     <row r="47" spans="1:10" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2">
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E47" s="3">
         <v>150</v>
@@ -5561,7 +5625,7 @@
         <v>50</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I47" s="2">
         <v>20480</v>
@@ -5572,16 +5636,16 @@
     </row>
     <row r="48" spans="1:10" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C48" s="2">
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E48" s="3">
         <v>150</v>
@@ -5593,7 +5657,7 @@
         <v>50</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I48" s="2">
         <v>20480</v>
@@ -5604,16 +5668,16 @@
     </row>
     <row r="49" spans="1:10" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2">
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E49" s="3">
         <v>150</v>
@@ -5625,7 +5689,7 @@
         <v>50</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I49" s="2">
         <v>20480</v>
@@ -5636,16 +5700,16 @@
     </row>
     <row r="50" spans="1:10" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2">
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E50" s="5">
         <v>300</v>
@@ -5657,7 +5721,7 @@
         <v>100</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I50" s="2">
         <v>81920</v>
@@ -5668,16 +5732,16 @@
     </row>
     <row r="51" spans="1:10" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2">
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E51" s="5">
         <v>300</v>
@@ -5689,7 +5753,7 @@
         <v>100</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I51" s="2">
         <v>81920</v>
@@ -5700,16 +5764,16 @@
     </row>
     <row r="52" spans="1:10" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2">
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E52" s="5">
         <v>300</v>
@@ -5721,7 +5785,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I52" s="2">
         <v>81920</v>
@@ -5732,16 +5796,16 @@
     </row>
     <row r="53" spans="1:10" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E53" s="5">
         <v>15</v>
@@ -5753,7 +5817,7 @@
         <v>5</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I53" s="2">
         <v>320</v>
@@ -5764,16 +5828,16 @@
     </row>
     <row r="54" spans="1:10" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E54" s="5">
         <v>15</v>
@@ -5785,7 +5849,7 @@
         <v>5</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I54" s="2">
         <v>320</v>
@@ -5796,16 +5860,16 @@
     </row>
     <row r="55" spans="1:10" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E55" s="5">
         <v>15</v>
@@ -5817,7 +5881,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I55" s="2">
         <v>320</v>
@@ -5828,16 +5892,16 @@
     </row>
     <row r="56" spans="1:10" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2">
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E56" s="5">
         <v>30</v>
@@ -5849,7 +5913,7 @@
         <v>10</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I56" s="2">
         <v>1280</v>
@@ -5860,16 +5924,16 @@
     </row>
     <row r="57" spans="1:10" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2">
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E57" s="5">
         <v>30</v>
@@ -5881,7 +5945,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I57" s="2">
         <v>1280</v>
@@ -5892,16 +5956,16 @@
     </row>
     <row r="58" spans="1:10" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E58" s="5">
         <v>30</v>
@@ -5913,7 +5977,7 @@
         <v>10</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I58" s="2">
         <v>1280</v>
@@ -5924,16 +5988,16 @@
     </row>
     <row r="59" spans="1:10" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2">
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E59" s="5">
         <v>75</v>
@@ -5945,7 +6009,7 @@
         <v>25</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I59" s="2">
         <v>5120</v>
@@ -5956,16 +6020,16 @@
     </row>
     <row r="60" spans="1:10" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2">
         <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E60" s="5">
         <v>75</v>
@@ -5977,7 +6041,7 @@
         <v>25</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I60" s="2">
         <v>5120</v>
@@ -5988,16 +6052,16 @@
     </row>
     <row r="61" spans="1:10" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2">
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E61" s="5">
         <v>75</v>
@@ -6009,7 +6073,7 @@
         <v>25</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I61" s="2">
         <v>5120</v>
@@ -6020,16 +6084,16 @@
     </row>
     <row r="62" spans="1:10" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C62" s="2">
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E62" s="5">
         <v>150</v>
@@ -6041,7 +6105,7 @@
         <v>50</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I62" s="2">
         <v>20480</v>
@@ -6052,16 +6116,16 @@
     </row>
     <row r="63" spans="1:10" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2">
         <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E63" s="5">
         <v>150</v>
@@ -6073,7 +6137,7 @@
         <v>50</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I63" s="2">
         <v>20480</v>
@@ -6084,16 +6148,16 @@
     </row>
     <row r="64" spans="1:10" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C64" s="2">
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E64" s="5">
         <v>150</v>
@@ -6105,7 +6169,7 @@
         <v>50</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I64" s="2">
         <v>20480</v>
@@ -6116,16 +6180,16 @@
     </row>
     <row r="65" spans="1:10" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2">
         <v>5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E65" s="5">
         <v>300</v>
@@ -6137,7 +6201,7 @@
         <v>100</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I65" s="2">
         <v>81920</v>
@@ -6148,16 +6212,16 @@
     </row>
     <row r="66" spans="1:10" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C66" s="2">
         <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E66" s="5">
         <v>300</v>
@@ -6169,7 +6233,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I66" s="2">
         <v>81920</v>
@@ -6180,16 +6244,16 @@
     </row>
     <row r="67" spans="1:10" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2">
         <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E67" s="5">
         <v>300</v>
@@ -6201,7 +6265,7 @@
         <v>100</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I67" s="2">
         <v>81920</v>
@@ -6261,7 +6325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -6276,12 +6340,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2">
         <v>0.02</v>
@@ -6289,7 +6353,7 @@
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2">
         <v>0.02</v>
@@ -6297,7 +6361,7 @@
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2">
         <v>0.02</v>
@@ -6305,7 +6369,7 @@
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2">
         <v>0.02</v>
@@ -6313,7 +6377,7 @@
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2">
         <v>0.02</v>
@@ -6321,7 +6385,7 @@
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="B7" s="2">
         <v>0.02</v>
@@ -6329,7 +6393,7 @@
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="B8" s="2">
         <v>0.02</v>
@@ -6337,7 +6401,7 @@
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="B9" s="2">
         <v>0.02</v>
@@ -6345,7 +6409,7 @@
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2">
         <v>0.02</v>
@@ -6353,7 +6417,7 @@
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2">
         <v>0.02</v>
@@ -6361,7 +6425,7 @@
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2">
         <v>0.02</v>
@@ -6369,7 +6433,7 @@
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2">
         <v>0.02</v>
@@ -6377,7 +6441,7 @@
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2">
         <v>0.02</v>
@@ -6385,7 +6449,7 @@
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2">
         <v>0.02</v>
@@ -6393,7 +6457,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2">
         <v>0.02</v>
@@ -6401,7 +6465,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2">
         <v>0.02</v>
@@ -6409,7 +6473,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2">
         <v>0.02</v>
@@ -6417,7 +6481,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2">
         <v>0.02</v>
@@ -6957,10 +7021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6970,12 +7034,12 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -6983,10 +7047,13 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -6997,10 +7064,13 @@
       <c r="D2" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
@@ -7011,10 +7081,13 @@
       <c r="D3" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
@@ -7025,10 +7098,13 @@
       <c r="D4" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>160</v>
@@ -7039,10 +7115,13 @@
       <c r="D5" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>200</v>
@@ -7053,10 +7132,13 @@
       <c r="D6" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -7067,10 +7149,13 @@
       <c r="D7" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>800</v>
@@ -7081,10 +7166,13 @@
       <c r="D8" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
@@ -7095,10 +7183,13 @@
       <c r="D9" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>1200</v>
@@ -7109,10 +7200,13 @@
       <c r="D10" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>1600</v>
@@ -7123,10 +7217,13 @@
       <c r="D11" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
@@ -7137,10 +7234,13 @@
       <c r="D12" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2">
         <v>2400</v>
@@ -7151,10 +7251,13 @@
       <c r="D13" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <v>2800</v>
@@ -7165,10 +7268,13 @@
       <c r="D14" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2">
         <v>3200</v>
@@ -7179,10 +7285,13 @@
       <c r="D15" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>4000</v>
@@ -7193,10 +7302,13 @@
       <c r="D16" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>4800</v>
@@ -7207,10 +7319,13 @@
       <c r="D17" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>5600</v>
@@ -7221,10 +7336,13 @@
       <c r="D18" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>6400</v>
@@ -7235,10 +7353,13 @@
       <c r="D19" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>7200</v>
@@ -7249,10 +7370,13 @@
       <c r="D20" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="E20" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>8000</v>
@@ -7262,6 +7386,9 @@
       </c>
       <c r="D21" s="2">
         <v>120</v>
+      </c>
+      <c r="E21" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -7445,10 +7572,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7457,12 +7584,12 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -7470,10 +7597,13 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -7484,10 +7614,13 @@
       <c r="D2" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
@@ -7498,10 +7631,13 @@
       <c r="D3" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
@@ -7512,10 +7648,13 @@
       <c r="D4" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>160</v>
@@ -7526,10 +7665,13 @@
       <c r="D5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>200</v>
@@ -7540,10 +7682,13 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -7554,10 +7699,13 @@
       <c r="D7" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>800</v>
@@ -7568,10 +7716,13 @@
       <c r="D8" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
@@ -7582,10 +7733,13 @@
       <c r="D9" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>1200</v>
@@ -7596,10 +7750,13 @@
       <c r="D10" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>1600</v>
@@ -7610,10 +7767,13 @@
       <c r="D11" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
@@ -7624,10 +7784,13 @@
       <c r="D12" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>2400</v>
@@ -7638,10 +7801,13 @@
       <c r="D13" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>2800</v>
@@ -7652,10 +7818,13 @@
       <c r="D14" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>3200</v>
@@ -7666,10 +7835,13 @@
       <c r="D15" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>4000</v>
@@ -7680,10 +7852,13 @@
       <c r="D16" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>4800</v>
@@ -7694,10 +7869,13 @@
       <c r="D17" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>5600</v>
@@ -7708,10 +7886,13 @@
       <c r="D18" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>6400</v>
@@ -7722,10 +7903,13 @@
       <c r="D19" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>7200</v>
@@ -7736,10 +7920,13 @@
       <c r="D20" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="E20" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>8000</v>
@@ -7750,38 +7937,41 @@
       <c r="D21" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="E21" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -8035,10 +8225,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8047,12 +8237,12 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -8060,10 +8250,13 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -8074,10 +8267,13 @@
       <c r="D2" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
@@ -8088,10 +8284,13 @@
       <c r="D3" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
@@ -8102,10 +8301,13 @@
       <c r="D4" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>160</v>
@@ -8116,10 +8318,13 @@
       <c r="D5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>200</v>
@@ -8130,10 +8335,13 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -8144,10 +8352,13 @@
       <c r="D7" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>800</v>
@@ -8158,10 +8369,13 @@
       <c r="D8" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
@@ -8172,10 +8386,13 @@
       <c r="D9" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>1200</v>
@@ -8186,10 +8403,13 @@
       <c r="D10" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>1600</v>
@@ -8200,10 +8420,13 @@
       <c r="D11" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
@@ -8214,10 +8437,13 @@
       <c r="D12" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>2400</v>
@@ -8228,10 +8454,13 @@
       <c r="D13" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>2800</v>
@@ -8242,10 +8471,13 @@
       <c r="D14" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2">
         <v>3200</v>
@@ -8256,10 +8488,13 @@
       <c r="D15" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>4000</v>
@@ -8270,10 +8505,13 @@
       <c r="D16" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>4800</v>
@@ -8284,10 +8522,13 @@
       <c r="D17" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>5600</v>
@@ -8298,10 +8539,13 @@
       <c r="D18" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>6400</v>
@@ -8312,10 +8556,13 @@
       <c r="D19" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>7200</v>
@@ -8326,10 +8573,13 @@
       <c r="D20" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="E20" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2">
         <v>8000</v>
@@ -8340,56 +8590,59 @@
       <c r="D21" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="E21" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -8785,10 +9038,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8797,12 +9050,12 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -8810,10 +9063,13 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
@@ -8824,10 +9080,13 @@
       <c r="D2" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>160</v>
@@ -8838,10 +9097,13 @@
       <c r="D3" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -8852,10 +9114,13 @@
       <c r="D4" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -8866,10 +9131,13 @@
       <c r="D5" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>800</v>
@@ -8880,10 +9148,13 @@
       <c r="D6" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -8894,10 +9165,13 @@
       <c r="D7" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>1200</v>
@@ -8908,10 +9182,13 @@
       <c r="D8" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1600</v>
@@ -8922,10 +9199,13 @@
       <c r="D9" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>2000</v>
@@ -8936,10 +9216,13 @@
       <c r="D10" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>2400</v>
@@ -8950,10 +9233,13 @@
       <c r="D11" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2800</v>
@@ -8964,10 +9250,13 @@
       <c r="D12" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>3200</v>
@@ -8978,10 +9267,13 @@
       <c r="D13" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
         <v>4000</v>
@@ -8992,10 +9284,13 @@
       <c r="D14" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
         <v>4800</v>
@@ -9006,10 +9301,13 @@
       <c r="D15" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>5600</v>
@@ -9020,10 +9318,13 @@
       <c r="D16" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>6400</v>
@@ -9034,10 +9335,13 @@
       <c r="D17" s="2">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>7200</v>
@@ -9048,10 +9352,13 @@
       <c r="D18" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>8000</v>
@@ -9062,38 +9369,41 @@
       <c r="D19" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -9347,10 +9657,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9361,12 +9671,12 @@
     <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -9374,10 +9684,13 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
@@ -9388,10 +9701,13 @@
       <c r="D2" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>160</v>
@@ -9402,10 +9718,13 @@
       <c r="D3" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -9416,10 +9735,13 @@
       <c r="D4" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -9430,10 +9752,13 @@
       <c r="D5" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>800</v>
@@ -9444,10 +9769,13 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -9458,10 +9786,13 @@
       <c r="D7" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>1200</v>
@@ -9472,10 +9803,13 @@
       <c r="D8" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1600</v>
@@ -9486,10 +9820,13 @@
       <c r="D9" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>2000</v>
@@ -9500,10 +9837,13 @@
       <c r="D10" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>2400</v>
@@ -9514,10 +9854,13 @@
       <c r="D11" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2800</v>
@@ -9528,10 +9871,13 @@
       <c r="D12" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>3200</v>
@@ -9542,10 +9888,13 @@
       <c r="D13" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
         <v>4000</v>
@@ -9556,10 +9905,13 @@
       <c r="D14" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
         <v>4800</v>
@@ -9570,10 +9922,13 @@
       <c r="D15" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>5600</v>
@@ -9584,10 +9939,13 @@
       <c r="D16" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>6400</v>
@@ -9598,10 +9956,13 @@
       <c r="D17" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>7200</v>
@@ -9612,10 +9973,13 @@
       <c r="D18" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>8000</v>
@@ -9626,38 +9990,41 @@
       <c r="D19" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" ht="20" customHeight="1">
@@ -9911,10 +10278,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9923,12 +10290,12 @@
     <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -9936,10 +10303,13 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
@@ -9950,10 +10320,13 @@
       <c r="D2" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>160</v>
@@ -9964,10 +10337,13 @@
       <c r="D3" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="E3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -9978,10 +10354,13 @@
       <c r="D4" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -9992,10 +10371,13 @@
       <c r="D5" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
         <v>800</v>
@@ -10006,10 +10388,13 @@
       <c r="D6" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -10020,10 +10405,13 @@
       <c r="D7" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>1200</v>
@@ -10034,10 +10422,13 @@
       <c r="D8" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>1600</v>
@@ -10048,10 +10439,13 @@
       <c r="D9" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>2000</v>
@@ -10062,10 +10456,13 @@
       <c r="D10" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>2400</v>
@@ -10076,10 +10473,13 @@
       <c r="D11" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2">
         <v>2800</v>
@@ -10090,10 +10490,13 @@
       <c r="D12" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+      <c r="E12" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>3200</v>
@@ -10104,10 +10507,13 @@
       <c r="D13" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+      <c r="E13" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
         <v>4000</v>
@@ -10118,10 +10524,13 @@
       <c r="D14" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+      <c r="E14" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2">
         <v>4800</v>
@@ -10132,10 +10541,13 @@
       <c r="D15" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+      <c r="E15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2">
         <v>5600</v>
@@ -10146,10 +10558,13 @@
       <c r="D16" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>6400</v>
@@ -10160,10 +10575,13 @@
       <c r="D17" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>7200</v>
@@ -10174,10 +10592,13 @@
       <c r="D18" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2">
         <v>8000</v>
@@ -10188,62 +10609,65 @@
       <c r="D19" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2340" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="5840" yWindow="2020" windowWidth="19460" windowHeight="15720" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="235">
   <si>
     <t>INT_strength</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -260,10 +260,122 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>chest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>orb</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>armguardLeft,armguardRight</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redCrown_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueCrown_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redCrown_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueCrown_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenCrown_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redCrown_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueCrown_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redCrown_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueCrown_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenCrown_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redCrown_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueCrown_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueChest_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redChest_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueSting_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenSting_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redSting_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueSting_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenSting_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenChest_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redChest_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redArmguard_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_leadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>crown</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>greenCrown_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>crown</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -272,11 +384,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>greenCrown_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>crown</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>crown</t>
+    <t>greenCrown_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redChest_s2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -284,31 +404,195 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>blueChest_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenChest_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redChest_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueChest_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenChest_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueChest_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenChest_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redSting_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueSting_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenSting_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>sting</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>redSting_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>sting</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>greenSting_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redSting_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueSting_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redOrd_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>orb</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>blueOrd_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>orb</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>greenOrd_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>orb</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>redOrd_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>orb</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>orb</t>
+    <t>blueOrd_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenOrd_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redOrd_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueOrd_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenOrd_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redOrd_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueOrd_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenOrd_s5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redArmguard_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_1:3,redCrystal_1:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueArmguard_s1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_1:3,blueCrystal_1:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenArmguard_s1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -316,267 +600,87 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>ingot_1:3,greenCrystal_1:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_2:3,redCrystal_2:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueArmguard_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_2:3,blueCrystal_2:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenArmguard_s2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>armguardLeft,armguardRight</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>ingot_2:3,greenCrystal_2:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redArmguard_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_3:3,redCrystal_3:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueArmguard_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_3:3,blueCrystal_3:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenArmguard_s3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_3:3,greenCrystal_3:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>redArmguard_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>armguardLeft,armguardRight</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>ingot_4:3,redCrystal_4:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueArmguard_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingot_4:3,blueCrystal_4:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenArmguard_s4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>armguardLeft,armguardRight</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>redCrown_s1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueCrown_s1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redCrown_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueCrown_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenCrown_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redCrown_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueCrown_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenCrown_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redCrown_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueCrown_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenCrown_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redCrown_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueCrown_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenCrown_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redChest_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueChest_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueChest_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redChest_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueChest_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenChest_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueSting_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redSting_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenSting_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redSting_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueSting_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenSting_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redSting_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueSting_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenSting_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redSting_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueSting_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenSting_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenChest_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redChest_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenChest_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redChest_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueChest_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenChest_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redOrd_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueOrd_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenOrd_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redOrd_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueOrd_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenOrd_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redOrd_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueOrd_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenOrd_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redOrd_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueOrd_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenOrd_s5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>armguardLeft,armguardRight</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redArmguard_s1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueArmguard_s1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenArmguard_s1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redArmguard_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueArmguard_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenArmguard_s2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redArmguard_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueArmguard_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenArmguard_s3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>redArmguard_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueArmguard_s4</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenArmguard_s4</t>
+    <t>ingot_4:3,greenCrystal_4:3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -584,26 +688,27 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>ingot_5:3,redCrystal_5:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>blueArmguard_s5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>ingot_5:3,blueCrystal_5:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>greenArmguard_s5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>greenCrown_s1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingo_1:1,redCrystal_1:1</t>
-  </si>
-  <si>
-    <t>ingo_1:1,redCrystal_1:1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_leadership</t>
+    <t>ingot_5:3,greenCrystal_5:3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryAtkAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -611,6 +716,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>infantryLoadAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>infantryMarchAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -663,20 +772,165 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>infantryAtkAdd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryLoadAdd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>troopSizeAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>recoverAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>runes_1:3,redCrystal_1:3</t>
+  </si>
+  <si>
+    <t>runes_3:3,redCrystal_3:3</t>
+  </si>
+  <si>
+    <t>runes_3:3,blueCrystal_3:3</t>
+  </si>
+  <si>
+    <t>runes_3:3,greenCrystal_3:3</t>
+  </si>
+  <si>
+    <t>runes_4:3,redCrystal_4:3</t>
+  </si>
+  <si>
+    <t>runes_4:3,blueCrystal_4:3</t>
+  </si>
+  <si>
+    <t>runes_4:3,greenCrystal_4:3</t>
+  </si>
+  <si>
+    <t>runes_5:3,redCrystal_5:3</t>
+  </si>
+  <si>
+    <t>runes_5:3,blueCrystal_5:3</t>
+  </si>
+  <si>
+    <t>runes_5:3,greenCrystal_5:3</t>
+  </si>
+  <si>
+    <t>ingot_2:2,redSoul_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingot_2:2,blueSoul_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingot_2:2,greenSoul_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingot_3:2,redSoul_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingot_3:2,blueSoul_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingot_3:2,greenSoul_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingot_4:2,redSoul_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingot_4:2,blueSoul_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingot_4:2,greenSoul_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingot_5:2,redSoul_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingot_5:2,blueSoul_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingot_5:2,greenSoul_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingot_2:2,redCrystal_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingot_2:2,blueCrystal_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingot_2:2,greenCrystal_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingot_3:2,redCrystal_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingot_3:2,blueCrystal_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingot_3:2,greenCrystal_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingot_4:2,redCrystal_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingot_4:2,blueCrystal_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingot_4:2,greenCrystal_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingot_5:2,redCrystal_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingot_5:2,blueCrystal_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingot_5:2,greenCrystal_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>redSoul_2:2,redCrystal_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>blueSoul_2:2,blueCrystal_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>greenSoul_2:2,greenCrystal_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>redSoul_3:2,redCrystal_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>blueSoul_3:2,blueCrystal_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>greenSoul_3:2,greenCrystal_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>redSoul_4:2,redCrystal_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>blueSoul_4:2,blueCrystal_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>greenSoul_4:2,greenCrystal_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>redSoul_5:2,redCrystal_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>blueSoul_5:2,blueCrystal_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>greenSoul_5:2,greenCrystal_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>runes_1:3,blueCrystal_1:3</t>
+  </si>
+  <si>
+    <t>runes_1:3,greenCrystal_1:3</t>
+  </si>
+  <si>
+    <t>runes_2:3,redCrystal_2:3</t>
+  </si>
+  <si>
+    <t>runes_2:3,blueCrystal_2:3</t>
+  </si>
+  <si>
+    <t>runes_2:3,greenCrystal_2:3</t>
   </si>
 </sst>
 </file>
@@ -857,7 +1111,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1392">
+  <cellStyleXfs count="1408">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -872,6 +1126,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2273,7 +2543,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1392">
+  <cellStyles count="1408">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2972,6 +3242,14 @@
     <cellStyle name="超链接" xfId="1386" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1388" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1406" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3663,6 +3941,14 @@
     <cellStyle name="访问过的超链接" xfId="1387" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1389" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1407" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4114,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4164,7 +4450,7 @@
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>39</v>
@@ -4173,30 +4459,30 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="I2" s="2">
-        <v>320</v>
+        <v>1500</v>
       </c>
       <c r="J2" s="2">
-        <v>1600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>40</v>
@@ -4205,30 +4491,30 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="I3" s="2">
-        <v>320</v>
+        <v>1500</v>
       </c>
       <c r="J3" s="2">
-        <v>1600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>41</v>
@@ -4237,30 +4523,30 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="I4" s="2">
-        <v>320</v>
+        <v>1500</v>
       </c>
       <c r="J4" s="2">
-        <v>1600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>39</v>
@@ -4269,30 +4555,30 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F5" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="I5" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J5" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
@@ -4301,30 +4587,30 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G6" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="I6" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J6" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
@@ -4333,30 +4619,30 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F7" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G7" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="I7" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J7" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>39</v>
@@ -4365,30 +4651,30 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F8" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="I8" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J8" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>40</v>
@@ -4397,30 +4683,30 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F9" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G9" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="I9" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J9" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>41</v>
@@ -4429,30 +4715,30 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F10" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G10" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="I10" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J10" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>39</v>
@@ -4464,27 +4750,27 @@
         <v>53</v>
       </c>
       <c r="E11" s="2">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="F11" s="2">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G11" s="2">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="I11" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J11" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
@@ -4496,27 +4782,27 @@
         <v>53</v>
       </c>
       <c r="E12" s="2">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="F12" s="2">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G12" s="2">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="I12" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J12" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>41</v>
@@ -4525,30 +4811,30 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="F13" s="2">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G13" s="2">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="I13" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J13" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>39</v>
@@ -4557,30 +4843,30 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E14" s="2">
-        <v>300</v>
+        <v>22400</v>
       </c>
       <c r="F14" s="2">
-        <v>200</v>
+        <v>16800</v>
       </c>
       <c r="G14" s="2">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="I14" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J14" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>40</v>
@@ -4589,30 +4875,30 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2">
-        <v>300</v>
+        <v>22400</v>
       </c>
       <c r="F15" s="2">
-        <v>200</v>
+        <v>16800</v>
       </c>
       <c r="G15" s="2">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="I15" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J15" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -4624,27 +4910,27 @@
         <v>53</v>
       </c>
       <c r="E16" s="2">
-        <v>300</v>
+        <v>22400</v>
       </c>
       <c r="F16" s="2">
-        <v>200</v>
+        <v>16800</v>
       </c>
       <c r="G16" s="2">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="I16" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J16" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>39</v>
@@ -4653,30 +4939,30 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E17" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F17" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G17" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="I17" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J17" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
@@ -4685,30 +4971,30 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F18" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G18" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="I18" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J18" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>41</v>
@@ -4717,30 +5003,30 @@
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F19" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G19" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="I19" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J19" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
@@ -4749,30 +5035,30 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F20" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G20" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="I20" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J20" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
@@ -4781,30 +5067,30 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F21" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G21" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
       <c r="I21" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J21" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
@@ -4813,30 +5099,30 @@
         <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G22" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="I22" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J22" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>39</v>
@@ -4845,30 +5131,30 @@
         <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="F23" s="2">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G23" s="2">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="I23" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J23" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>40</v>
@@ -4877,30 +5163,30 @@
         <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="F24" s="2">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G24" s="2">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="I24" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J24" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>41</v>
@@ -4909,30 +5195,30 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E25" s="2">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="F25" s="2">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G25" s="2">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="I25" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J25" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="20" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>39</v>
@@ -4941,30 +5227,30 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2">
-        <v>300</v>
+        <v>22400</v>
       </c>
       <c r="F26" s="2">
-        <v>200</v>
+        <v>16800</v>
       </c>
       <c r="G26" s="2">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="I26" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J26" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>40</v>
@@ -4973,30 +5259,30 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2">
-        <v>300</v>
+        <v>22400</v>
       </c>
       <c r="F27" s="2">
-        <v>200</v>
+        <v>16800</v>
       </c>
       <c r="G27" s="2">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="I27" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J27" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>41</v>
@@ -5005,30 +5291,30 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2">
-        <v>300</v>
+        <v>22400</v>
       </c>
       <c r="F28" s="2">
-        <v>200</v>
+        <v>16800</v>
       </c>
       <c r="G28" s="2">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="I28" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J28" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="20" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>39</v>
@@ -5037,30 +5323,30 @@
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E29" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F29" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G29" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="I29" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J29" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>40</v>
@@ -5069,30 +5355,30 @@
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F30" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G30" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="I30" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J30" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="20" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>41</v>
@@ -5101,30 +5387,30 @@
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E31" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F31" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G31" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="I31" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J31" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>39</v>
@@ -5133,30 +5419,30 @@
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="E32" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F32" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G32" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="I32" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J32" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="20" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>40</v>
@@ -5165,30 +5451,30 @@
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E33" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G33" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="I33" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J33" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>41</v>
@@ -5197,30 +5483,30 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E34" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F34" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G34" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="I34" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J34" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>39</v>
@@ -5229,30 +5515,30 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="F35" s="2">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G35" s="2">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="I35" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J35" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="20" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>40</v>
@@ -5261,30 +5547,30 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="E36" s="2">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="F36" s="2">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G36" s="2">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="I36" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J36" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="20" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>41</v>
@@ -5293,30 +5579,30 @@
         <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E37" s="2">
-        <v>150</v>
+        <v>5600</v>
       </c>
       <c r="F37" s="2">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G37" s="2">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="I37" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J37" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="20" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>39</v>
@@ -5325,30 +5611,30 @@
         <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="E38" s="2">
-        <v>300</v>
+        <v>22400</v>
       </c>
       <c r="F38" s="2">
-        <v>200</v>
+        <v>16800</v>
       </c>
       <c r="G38" s="2">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="I38" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J38" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="20" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>40</v>
@@ -5357,30 +5643,30 @@
         <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2">
-        <v>300</v>
+        <v>22400</v>
       </c>
       <c r="F39" s="2">
-        <v>200</v>
+        <v>16800</v>
       </c>
       <c r="G39" s="2">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="I39" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J39" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="20" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>41</v>
@@ -5389,30 +5675,30 @@
         <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2">
-        <v>300</v>
+        <v>22400</v>
       </c>
       <c r="F40" s="2">
-        <v>200</v>
+        <v>16800</v>
       </c>
       <c r="G40" s="2">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="I40" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J40" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="20" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
@@ -5421,30 +5707,30 @@
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="E41" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F41" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G41" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="I41" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J41" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>
@@ -5453,30 +5739,30 @@
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="E42" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F42" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G42" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="I42" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J42" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="20" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>41</v>
@@ -5485,30 +5771,30 @@
         <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="E43" s="2">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F43" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G43" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="I43" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J43" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="20" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>39</v>
@@ -5517,30 +5803,30 @@
         <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="E44" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F44" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G44" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="I44" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J44" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="20" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>40</v>
@@ -5549,30 +5835,30 @@
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="E45" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F45" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G45" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="I45" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J45" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>41</v>
@@ -5581,30 +5867,30 @@
         <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E46" s="2">
-        <v>75</v>
+        <v>1600</v>
       </c>
       <c r="F46" s="2">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="G46" s="2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="I46" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J46" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="20" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>39</v>
@@ -5613,30 +5899,30 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="3">
-        <v>150</v>
-      </c>
-      <c r="F47" s="3">
-        <v>100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="E47" s="2">
+        <v>5600</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2800</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="I47" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J47" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="20" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>40</v>
@@ -5645,30 +5931,30 @@
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="3">
-        <v>150</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
-      <c r="G48" s="5">
-        <v>50</v>
+        <v>120</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5600</v>
+      </c>
+      <c r="F48" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2800</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="I48" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J48" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="20" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>41</v>
@@ -5677,30 +5963,30 @@
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" s="3">
-        <v>150</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
-      </c>
-      <c r="G49" s="5">
-        <v>50</v>
+        <v>122</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5600</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2800</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="I49" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J49" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="20" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>39</v>
@@ -5709,30 +5995,30 @@
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="5">
-        <v>300</v>
-      </c>
-      <c r="F50" s="5">
-        <v>200</v>
-      </c>
-      <c r="G50" s="5">
-        <v>100</v>
+        <v>124</v>
+      </c>
+      <c r="E50" s="2">
+        <v>22400</v>
+      </c>
+      <c r="F50" s="2">
+        <v>16800</v>
+      </c>
+      <c r="G50" s="2">
+        <v>11200</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="I50" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J50" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="20" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>40</v>
@@ -5741,30 +6027,30 @@
         <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="5">
-        <v>300</v>
-      </c>
-      <c r="F51" s="5">
-        <v>200</v>
-      </c>
-      <c r="G51" s="5">
-        <v>100</v>
+        <v>120</v>
+      </c>
+      <c r="E51" s="2">
+        <v>22400</v>
+      </c>
+      <c r="F51" s="2">
+        <v>16800</v>
+      </c>
+      <c r="G51" s="2">
+        <v>11200</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="I51" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J51" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="20" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>41</v>
@@ -5773,30 +6059,30 @@
         <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="5">
-        <v>300</v>
-      </c>
-      <c r="F52" s="5">
-        <v>200</v>
-      </c>
-      <c r="G52" s="5">
-        <v>100</v>
+        <v>122</v>
+      </c>
+      <c r="E52" s="2">
+        <v>22400</v>
+      </c>
+      <c r="F52" s="2">
+        <v>16800</v>
+      </c>
+      <c r="G52" s="2">
+        <v>11200</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="I52" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J52" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="20" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>39</v>
@@ -5805,30 +6091,30 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="5">
-        <v>15</v>
-      </c>
-      <c r="F53" s="5">
-        <v>10</v>
-      </c>
-      <c r="G53" s="5">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="E53" s="2">
+        <v>100</v>
+      </c>
+      <c r="F53" s="2">
+        <v>75</v>
+      </c>
+      <c r="G53" s="2">
+        <v>50</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I53" s="2">
-        <v>320</v>
+        <v>1500</v>
       </c>
       <c r="J53" s="2">
-        <v>1600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>40</v>
@@ -5837,30 +6123,30 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="5">
-        <v>15</v>
-      </c>
-      <c r="F54" s="5">
-        <v>10</v>
-      </c>
-      <c r="G54" s="5">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="E54" s="2">
+        <v>100</v>
+      </c>
+      <c r="F54" s="2">
+        <v>75</v>
+      </c>
+      <c r="G54" s="2">
+        <v>50</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I54" s="2">
-        <v>320</v>
+        <v>1500</v>
       </c>
       <c r="J54" s="2">
-        <v>1600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>41</v>
@@ -5869,30 +6155,30 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="5">
-        <v>15</v>
-      </c>
-      <c r="F55" s="5">
-        <v>10</v>
-      </c>
-      <c r="G55" s="5">
-        <v>5</v>
+        <v>138</v>
+      </c>
+      <c r="E55" s="2">
+        <v>100</v>
+      </c>
+      <c r="F55" s="2">
+        <v>75</v>
+      </c>
+      <c r="G55" s="2">
+        <v>50</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I55" s="2">
-        <v>320</v>
+        <v>1500</v>
       </c>
       <c r="J55" s="2">
-        <v>1600</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>39</v>
@@ -5901,30 +6187,30 @@
         <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="5">
-        <v>30</v>
-      </c>
-      <c r="F56" s="5">
-        <v>20</v>
-      </c>
-      <c r="G56" s="5">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="E56" s="2">
+        <v>400</v>
+      </c>
+      <c r="F56" s="2">
+        <v>300</v>
+      </c>
+      <c r="G56" s="2">
+        <v>200</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I56" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J56" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>40</v>
@@ -5933,30 +6219,30 @@
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="5">
-        <v>30</v>
-      </c>
-      <c r="F57" s="5">
-        <v>20</v>
-      </c>
-      <c r="G57" s="5">
-        <v>10</v>
+        <v>138</v>
+      </c>
+      <c r="E57" s="2">
+        <v>400</v>
+      </c>
+      <c r="F57" s="2">
+        <v>300</v>
+      </c>
+      <c r="G57" s="2">
+        <v>200</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I57" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J57" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>41</v>
@@ -5965,30 +6251,30 @@
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="5">
-        <v>30</v>
-      </c>
-      <c r="F58" s="5">
-        <v>20</v>
-      </c>
-      <c r="G58" s="5">
-        <v>10</v>
+        <v>144</v>
+      </c>
+      <c r="E58" s="2">
+        <v>400</v>
+      </c>
+      <c r="F58" s="2">
+        <v>300</v>
+      </c>
+      <c r="G58" s="2">
+        <v>200</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I58" s="2">
-        <v>1280</v>
+        <v>20000</v>
       </c>
       <c r="J58" s="2">
-        <v>3600</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>39</v>
@@ -5997,30 +6283,30 @@
         <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="5">
-        <v>75</v>
-      </c>
-      <c r="F59" s="5">
-        <v>50</v>
-      </c>
-      <c r="G59" s="5">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="2">
+        <v>800</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="I59" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J59" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>40</v>
@@ -6029,30 +6315,30 @@
         <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="5">
-        <v>75</v>
-      </c>
-      <c r="F60" s="5">
-        <v>50</v>
-      </c>
-      <c r="G60" s="5">
-        <v>25</v>
+        <v>144</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="2">
+        <v>800</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="I60" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J60" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>41</v>
@@ -6061,30 +6347,30 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="5">
-        <v>75</v>
-      </c>
-      <c r="F61" s="5">
-        <v>50</v>
-      </c>
-      <c r="G61" s="5">
-        <v>25</v>
+        <v>138</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1600</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1200</v>
+      </c>
+      <c r="G61" s="2">
+        <v>800</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="I61" s="2">
-        <v>5120</v>
+        <v>112000</v>
       </c>
       <c r="J61" s="2">
-        <v>7200</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>39</v>
@@ -6093,30 +6379,30 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="5">
-        <v>150</v>
-      </c>
-      <c r="F62" s="5">
-        <v>100</v>
-      </c>
-      <c r="G62" s="5">
-        <v>50</v>
+        <v>153</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5600</v>
+      </c>
+      <c r="F62" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2800</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="I62" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J62" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>40</v>
@@ -6125,30 +6411,30 @@
         <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="5">
-        <v>150</v>
-      </c>
-      <c r="F63" s="5">
-        <v>100</v>
-      </c>
-      <c r="G63" s="5">
-        <v>50</v>
+        <v>138</v>
+      </c>
+      <c r="E63" s="2">
+        <v>5600</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2800</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="I63" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J63" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>41</v>
@@ -6157,30 +6443,30 @@
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="5">
-        <v>150</v>
-      </c>
-      <c r="F64" s="5">
-        <v>100</v>
-      </c>
-      <c r="G64" s="5">
-        <v>50</v>
+        <v>158</v>
+      </c>
+      <c r="E64" s="2">
+        <v>5600</v>
+      </c>
+      <c r="F64" s="2">
+        <v>4200</v>
+      </c>
+      <c r="G64" s="2">
+        <v>2800</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="I64" s="2">
-        <v>20480</v>
+        <v>348000</v>
       </c>
       <c r="J64" s="2">
-        <v>12000</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>39</v>
@@ -6189,30 +6475,30 @@
         <v>5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" s="5">
-        <v>300</v>
-      </c>
-      <c r="F65" s="5">
-        <v>200</v>
-      </c>
-      <c r="G65" s="5">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="E65" s="2">
+        <v>22400</v>
+      </c>
+      <c r="F65" s="2">
+        <v>16800</v>
+      </c>
+      <c r="G65" s="2">
+        <v>11200</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="I65" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J65" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>40</v>
@@ -6221,30 +6507,30 @@
         <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="5">
-        <v>300</v>
-      </c>
-      <c r="F66" s="5">
-        <v>200</v>
-      </c>
-      <c r="G66" s="5">
-        <v>100</v>
+        <v>138</v>
+      </c>
+      <c r="E66" s="2">
+        <v>22400</v>
+      </c>
+      <c r="F66" s="2">
+        <v>16800</v>
+      </c>
+      <c r="G66" s="2">
+        <v>11200</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="I66" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J66" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>41</v>
@@ -6253,25 +6539,25 @@
         <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="5">
-        <v>300</v>
-      </c>
-      <c r="F67" s="5">
-        <v>200</v>
-      </c>
-      <c r="G67" s="5">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="E67" s="2">
+        <v>22400</v>
+      </c>
+      <c r="F67" s="2">
+        <v>16800</v>
+      </c>
+      <c r="G67" s="2">
+        <v>11200</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="I67" s="2">
-        <v>81920</v>
+        <v>1044000</v>
       </c>
       <c r="J67" s="2">
-        <v>16000</v>
+        <v>38400</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="20" customHeight="1">
@@ -6325,8 +6611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6345,146 +6631,146 @@
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="B6" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B7" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B8" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="B9" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B10" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="B11" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B13" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B14" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B15" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B16" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -7024,7 +7310,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7048,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7056,16 +7342,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -7073,16 +7359,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C3" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -7090,16 +7376,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -7107,16 +7393,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -7124,16 +7410,16 @@
         <v>14</v>
       </c>
       <c r="B6" s="2">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="C6" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -7141,16 +7427,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="C7" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -7158,16 +7444,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="C8" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -7175,16 +7461,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>1000</v>
+        <v>9600</v>
       </c>
       <c r="C9" s="2">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -7192,16 +7478,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>1200</v>
+        <v>12800</v>
       </c>
       <c r="C10" s="2">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -7209,16 +7495,16 @@
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>1600</v>
+        <v>5600</v>
       </c>
       <c r="C11" s="2">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -7226,16 +7512,16 @@
         <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>2000</v>
+        <v>11200</v>
       </c>
       <c r="C12" s="2">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="E12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -7243,16 +7529,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>2400</v>
+        <v>33600</v>
       </c>
       <c r="C13" s="2">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="E13" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -7260,16 +7546,16 @@
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>2800</v>
+        <v>44800</v>
       </c>
       <c r="C14" s="2">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="E14" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -7277,16 +7563,16 @@
         <v>32</v>
       </c>
       <c r="B15" s="2">
-        <v>3200</v>
+        <v>89600</v>
       </c>
       <c r="C15" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="D15" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="E15" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -7294,16 +7580,16 @@
         <v>33</v>
       </c>
       <c r="B16" s="2">
-        <v>4000</v>
+        <v>22400</v>
       </c>
       <c r="C16" s="2">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="D16" s="2">
-        <v>90</v>
+        <v>341</v>
       </c>
       <c r="E16" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -7311,16 +7597,16 @@
         <v>34</v>
       </c>
       <c r="B17" s="2">
-        <v>4800</v>
+        <v>44800</v>
       </c>
       <c r="C17" s="2">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="D17" s="2">
-        <v>96</v>
+        <v>379</v>
       </c>
       <c r="E17" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -7328,16 +7614,16 @@
         <v>35</v>
       </c>
       <c r="B18" s="2">
-        <v>5600</v>
+        <v>134400</v>
       </c>
       <c r="C18" s="2">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="D18" s="2">
-        <v>102</v>
+        <v>421</v>
       </c>
       <c r="E18" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -7345,16 +7631,16 @@
         <v>36</v>
       </c>
       <c r="B19" s="2">
-        <v>6400</v>
+        <v>179200</v>
       </c>
       <c r="C19" s="2">
-        <v>54</v>
+        <v>298</v>
       </c>
       <c r="D19" s="2">
-        <v>108</v>
+        <v>468</v>
       </c>
       <c r="E19" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -7362,16 +7648,16 @@
         <v>37</v>
       </c>
       <c r="B20" s="2">
-        <v>7200</v>
+        <v>358400</v>
       </c>
       <c r="C20" s="2">
-        <v>57</v>
+        <v>338</v>
       </c>
       <c r="D20" s="2">
-        <v>114</v>
+        <v>520</v>
       </c>
       <c r="E20" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -7379,16 +7665,16 @@
         <v>38</v>
       </c>
       <c r="B21" s="2">
-        <v>8000</v>
+        <v>716800</v>
       </c>
       <c r="C21" s="2">
-        <v>60</v>
+        <v>385</v>
       </c>
       <c r="D21" s="2">
-        <v>120</v>
+        <v>577</v>
       </c>
       <c r="E21" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -7575,7 +7861,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7598,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7606,339 +7892,339 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>40</v>
+      <c r="B3" s="4">
+        <v>200</v>
       </c>
       <c r="C3" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>12</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>120</v>
+      <c r="B4" s="4">
+        <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
-        <v>160</v>
+      <c r="B5" s="4">
+        <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
-        <v>200</v>
+      <c r="B6" s="4">
+        <v>2400</v>
       </c>
       <c r="C6" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
-        <v>600</v>
+      <c r="B7" s="4">
+        <v>1600</v>
       </c>
       <c r="C7" s="2">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
-        <v>800</v>
+      <c r="B8" s="4">
+        <v>3200</v>
       </c>
       <c r="C8" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2">
-        <v>1000</v>
+      <c r="B9" s="4">
+        <v>9600</v>
       </c>
       <c r="C9" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2">
-        <v>1200</v>
+      <c r="B10" s="4">
+        <v>12800</v>
       </c>
       <c r="C10" s="2">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
-        <v>1600</v>
+      <c r="B11" s="4">
+        <v>5600</v>
       </c>
       <c r="C11" s="2">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2">
-        <v>2000</v>
+      <c r="B12" s="4">
+        <v>11200</v>
       </c>
       <c r="C12" s="2">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2">
-        <v>2400</v>
+      <c r="B13" s="4">
+        <v>33600</v>
       </c>
       <c r="C13" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2">
-        <v>2800</v>
+      <c r="B14" s="4">
+        <v>44800</v>
       </c>
       <c r="C14" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="D14" s="2">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="E14" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2">
-        <v>3200</v>
+      <c r="B15" s="4">
+        <v>89600</v>
       </c>
       <c r="C15" s="2">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="D15" s="2">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2">
-        <v>4000</v>
+      <c r="B16" s="4">
+        <v>22400</v>
       </c>
       <c r="C16" s="2">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="D16" s="2">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c r="E16" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2">
-        <v>4800</v>
+      <c r="B17" s="4">
+        <v>44800</v>
       </c>
       <c r="C17" s="2">
-        <v>106</v>
+        <v>404</v>
       </c>
       <c r="D17" s="2">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="E17" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2">
-        <v>5600</v>
+      <c r="B18" s="4">
+        <v>134400</v>
       </c>
       <c r="C18" s="2">
-        <v>113</v>
+        <v>449</v>
       </c>
       <c r="D18" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="E18" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2">
-        <v>6400</v>
-      </c>
-      <c r="C19" s="2">
-        <v>119</v>
-      </c>
-      <c r="D19" s="2">
-        <v>81</v>
+      <c r="B19" s="4">
+        <v>179200</v>
+      </c>
+      <c r="C19" s="5">
+        <v>499</v>
+      </c>
+      <c r="D19" s="5">
+        <v>351</v>
       </c>
       <c r="E19" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2">
-        <v>7200</v>
+      <c r="B20" s="4">
+        <v>358400</v>
       </c>
       <c r="C20" s="2">
-        <v>126</v>
+        <v>554</v>
       </c>
       <c r="D20" s="2">
-        <v>86</v>
+        <v>390</v>
       </c>
       <c r="E20" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C21" s="5">
-        <v>132</v>
-      </c>
-      <c r="D21" s="5">
-        <v>90</v>
+      <c r="B21" s="4">
+        <v>716800</v>
+      </c>
+      <c r="C21" s="2">
+        <v>616</v>
+      </c>
+      <c r="D21" s="2">
+        <v>433</v>
       </c>
       <c r="E21" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -8228,7 +8514,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8251,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -8259,339 +8545,339 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>40</v>
+      <c r="B3" s="4">
+        <v>200</v>
       </c>
       <c r="C3" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>12</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>120</v>
+      <c r="B4" s="4">
+        <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
-        <v>160</v>
+      <c r="B5" s="4">
+        <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
-        <v>200</v>
+      <c r="B6" s="4">
+        <v>2400</v>
       </c>
       <c r="C6" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2">
-        <v>600</v>
+      <c r="B7" s="4">
+        <v>1600</v>
       </c>
       <c r="C7" s="2">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
-        <v>800</v>
+      <c r="B8" s="4">
+        <v>3200</v>
       </c>
       <c r="C8" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2">
-        <v>1000</v>
+      <c r="B9" s="4">
+        <v>9600</v>
       </c>
       <c r="C9" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2">
-        <v>1200</v>
+      <c r="B10" s="4">
+        <v>12800</v>
       </c>
       <c r="C10" s="2">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2">
-        <v>1600</v>
+      <c r="B11" s="4">
+        <v>5600</v>
       </c>
       <c r="C11" s="2">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2">
-        <v>2000</v>
+      <c r="B12" s="4">
+        <v>11200</v>
       </c>
       <c r="C12" s="2">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2">
-        <v>2400</v>
+      <c r="B13" s="4">
+        <v>33600</v>
       </c>
       <c r="C13" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2">
-        <v>2800</v>
+      <c r="B14" s="4">
+        <v>44800</v>
       </c>
       <c r="C14" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="D14" s="2">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="E14" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2">
-        <v>3200</v>
+      <c r="B15" s="4">
+        <v>89600</v>
       </c>
       <c r="C15" s="2">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="D15" s="2">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2">
-        <v>4000</v>
+      <c r="B16" s="4">
+        <v>22400</v>
       </c>
       <c r="C16" s="2">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="D16" s="2">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c r="E16" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2">
-        <v>4800</v>
+      <c r="B17" s="4">
+        <v>44800</v>
       </c>
       <c r="C17" s="2">
-        <v>106</v>
+        <v>404</v>
       </c>
       <c r="D17" s="2">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="E17" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2">
-        <v>5600</v>
+      <c r="B18" s="4">
+        <v>134400</v>
       </c>
       <c r="C18" s="2">
-        <v>113</v>
+        <v>449</v>
       </c>
       <c r="D18" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="E18" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2">
-        <v>6400</v>
-      </c>
-      <c r="C19" s="2">
-        <v>119</v>
-      </c>
-      <c r="D19" s="2">
-        <v>81</v>
+      <c r="B19" s="4">
+        <v>179200</v>
+      </c>
+      <c r="C19" s="5">
+        <v>499</v>
+      </c>
+      <c r="D19" s="5">
+        <v>351</v>
       </c>
       <c r="E19" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2">
-        <v>7200</v>
+      <c r="B20" s="4">
+        <v>358400</v>
       </c>
       <c r="C20" s="2">
-        <v>126</v>
+        <v>554</v>
       </c>
       <c r="D20" s="2">
-        <v>86</v>
+        <v>390</v>
       </c>
       <c r="E20" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C21" s="5">
-        <v>132</v>
-      </c>
-      <c r="D21" s="5">
-        <v>90</v>
+      <c r="B21" s="4">
+        <v>716800</v>
+      </c>
+      <c r="C21" s="2">
+        <v>616</v>
+      </c>
+      <c r="D21" s="2">
+        <v>433</v>
       </c>
       <c r="E21" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -9041,7 +9327,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9064,313 +9350,313 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>120</v>
+      <c r="B2" s="4">
+        <v>400</v>
       </c>
       <c r="C2" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>160</v>
+      <c r="B3" s="4">
+        <v>800</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>200</v>
+      <c r="B4" s="4">
+        <v>2400</v>
       </c>
       <c r="C4" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
-        <v>600</v>
+      <c r="B5" s="4">
+        <v>1600</v>
       </c>
       <c r="C5" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>800</v>
+      <c r="B6" s="4">
+        <v>3200</v>
       </c>
       <c r="C6" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2">
-        <v>1000</v>
+      <c r="B7" s="4">
+        <v>9600</v>
       </c>
       <c r="C7" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2">
-        <v>1200</v>
+      <c r="B8" s="4">
+        <v>12800</v>
       </c>
       <c r="C8" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="E8" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2">
-        <v>1600</v>
+      <c r="B9" s="4">
+        <v>5600</v>
       </c>
       <c r="C9" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>68</v>
+        <v>318</v>
       </c>
       <c r="E9" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
-        <v>2000</v>
+      <c r="B10" s="4">
+        <v>11200</v>
       </c>
       <c r="C10" s="2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>75</v>
+        <v>374</v>
       </c>
       <c r="E10" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2">
-        <v>2400</v>
+      <c r="B11" s="4">
+        <v>33600</v>
       </c>
       <c r="C11" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="E11" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2">
-        <v>2800</v>
+      <c r="B12" s="4">
+        <v>44800</v>
       </c>
       <c r="C12" s="2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>89</v>
+        <v>518</v>
       </c>
       <c r="E12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2">
-        <v>3200</v>
+      <c r="B13" s="4">
+        <v>89600</v>
       </c>
       <c r="C13" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>96</v>
+        <v>609</v>
       </c>
       <c r="E13" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2">
-        <v>4000</v>
+      <c r="B14" s="4">
+        <v>22400</v>
       </c>
       <c r="C14" s="2">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>108</v>
+        <v>852</v>
       </c>
       <c r="E14" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2">
-        <v>4800</v>
+      <c r="B15" s="4">
+        <v>44800</v>
       </c>
       <c r="C15" s="2">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>116</v>
+        <v>947</v>
       </c>
       <c r="E15" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2">
-        <v>5600</v>
+      <c r="B16" s="4">
+        <v>134400</v>
       </c>
       <c r="C16" s="2">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>123</v>
+        <v>1053</v>
       </c>
       <c r="E16" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2">
-        <v>6400</v>
+      <c r="B17" s="4">
+        <v>179200</v>
       </c>
       <c r="C17" s="2">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>130</v>
+        <v>1170</v>
       </c>
       <c r="E17" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2">
-        <v>7200</v>
+      <c r="B18" s="4">
+        <v>358400</v>
       </c>
       <c r="C18" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>137</v>
+        <v>1300</v>
       </c>
       <c r="E18" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2">
-        <v>8000</v>
+      <c r="B19" s="4">
+        <v>716800</v>
       </c>
       <c r="C19" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>144</v>
+        <v>1444</v>
       </c>
       <c r="E19" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -9660,7 +9946,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9685,313 +9971,313 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>120</v>
+      <c r="B2" s="4">
+        <v>400</v>
       </c>
       <c r="C2" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>160</v>
+      <c r="B3" s="4">
+        <v>800</v>
       </c>
       <c r="C3" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>200</v>
+      <c r="B4" s="4">
+        <v>2400</v>
       </c>
       <c r="C4" s="2">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
-        <v>600</v>
+      <c r="B5" s="4">
+        <v>1600</v>
       </c>
       <c r="C5" s="2">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>800</v>
+      <c r="B6" s="4">
+        <v>3200</v>
       </c>
       <c r="C6" s="2">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2">
-        <v>1000</v>
+      <c r="B7" s="4">
+        <v>9600</v>
       </c>
       <c r="C7" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2">
-        <v>1200</v>
+      <c r="B8" s="4">
+        <v>12800</v>
       </c>
       <c r="C8" s="2">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="D8" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2">
-        <v>1600</v>
+      <c r="B9" s="4">
+        <v>5600</v>
       </c>
       <c r="C9" s="2">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D9" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
-        <v>2000</v>
+      <c r="B10" s="4">
+        <v>11200</v>
       </c>
       <c r="C10" s="2">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="D10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2">
-        <v>2400</v>
+      <c r="B11" s="4">
+        <v>33600</v>
       </c>
       <c r="C11" s="2">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="D11" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2">
-        <v>2800</v>
+      <c r="B12" s="4">
+        <v>44800</v>
       </c>
       <c r="C12" s="2">
-        <v>74</v>
+        <v>368</v>
       </c>
       <c r="D12" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2">
-        <v>3200</v>
+      <c r="B13" s="4">
+        <v>89600</v>
       </c>
       <c r="C13" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="D13" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2">
-        <v>4000</v>
+      <c r="B14" s="4">
+        <v>22400</v>
       </c>
       <c r="C14" s="2">
-        <v>90</v>
+        <v>606</v>
       </c>
       <c r="D14" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2">
-        <v>4800</v>
+      <c r="B15" s="4">
+        <v>44800</v>
       </c>
       <c r="C15" s="2">
-        <v>96</v>
+        <v>673</v>
       </c>
       <c r="D15" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2">
-        <v>5600</v>
+      <c r="B16" s="4">
+        <v>134400</v>
       </c>
       <c r="C16" s="2">
-        <v>102</v>
+        <v>748</v>
       </c>
       <c r="D16" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2">
-        <v>6400</v>
+      <c r="B17" s="4">
+        <v>179200</v>
       </c>
       <c r="C17" s="2">
-        <v>108</v>
+        <v>832</v>
       </c>
       <c r="D17" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2">
-        <v>7200</v>
+      <c r="B18" s="4">
+        <v>358400</v>
       </c>
       <c r="C18" s="2">
-        <v>114</v>
+        <v>924</v>
       </c>
       <c r="D18" s="2">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2">
-        <v>8000</v>
+      <c r="B19" s="4">
+        <v>716800</v>
       </c>
       <c r="C19" s="2">
-        <v>120</v>
+        <v>1027</v>
       </c>
       <c r="D19" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -10281,7 +10567,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10304,313 +10590,313 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
-        <v>120</v>
+      <c r="B2" s="4">
+        <v>400</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
-        <v>160</v>
+      <c r="B3" s="4">
+        <v>800</v>
       </c>
       <c r="C3" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>200</v>
+      <c r="B4" s="4">
+        <v>2400</v>
       </c>
       <c r="C4" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
-        <v>600</v>
+      <c r="B5" s="4">
+        <v>1600</v>
       </c>
       <c r="C5" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2">
-        <v>800</v>
+      <c r="B6" s="4">
+        <v>3200</v>
       </c>
       <c r="C6" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2">
-        <v>1000</v>
+      <c r="B7" s="4">
+        <v>9600</v>
       </c>
       <c r="C7" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>15</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2">
-        <v>1200</v>
+      <c r="B8" s="4">
+        <v>12800</v>
       </c>
       <c r="C8" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>18</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2">
-        <v>1600</v>
+      <c r="B9" s="4">
+        <v>5600</v>
       </c>
       <c r="C9" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>21</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2">
-        <v>2000</v>
+      <c r="B10" s="4">
+        <v>11200</v>
       </c>
       <c r="C10" s="2">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>24</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2">
-        <v>2400</v>
+      <c r="B11" s="4">
+        <v>33600</v>
       </c>
       <c r="C11" s="2">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>28</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2">
-        <v>2800</v>
+      <c r="B12" s="4">
+        <v>44800</v>
       </c>
       <c r="C12" s="2">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>31</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2">
-        <v>3200</v>
+      <c r="B13" s="4">
+        <v>89600</v>
       </c>
       <c r="C13" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>34</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2">
-        <v>4000</v>
+      <c r="B14" s="4">
+        <v>22400</v>
       </c>
       <c r="C14" s="2">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>37</v>
+        <v>947</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2">
-        <v>4800</v>
+      <c r="B15" s="4">
+        <v>44800</v>
       </c>
       <c r="C15" s="2">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>40</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2">
-        <v>5600</v>
+      <c r="B16" s="4">
+        <v>134400</v>
       </c>
       <c r="C16" s="2">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>45</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="2">
-        <v>6400</v>
+      <c r="B17" s="4">
+        <v>179200</v>
       </c>
       <c r="C17" s="2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>48</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2">
-        <v>7200</v>
+      <c r="B18" s="4">
+        <v>358400</v>
       </c>
       <c r="C18" s="2">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>51</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2">
-        <v>8000</v>
-      </c>
-      <c r="C19" s="5">
-        <v>72</v>
-      </c>
-      <c r="D19" s="5">
-        <v>96</v>
+      <c r="B19" s="4">
+        <v>716800</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>54</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="2020" windowWidth="19460" windowHeight="15720" tabRatio="883"/>
+    <workbookView xWindow="6420" yWindow="1620" windowWidth="19460" windowHeight="15720" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -580,18 +580,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_1:3,redCrystal_1:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>blueArmguard_s1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_1:3,blueCrystal_1:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>greenArmguard_s1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -600,22 +592,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_1:3,greenCrystal_1:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingot_2:3,redCrystal_2:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>blueArmguard_s2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_2:3,blueCrystal_2:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>greenArmguard_s2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -624,34 +604,18 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_2:3,greenCrystal_2:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>redArmguard_s3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_3:3,redCrystal_3:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>blueArmguard_s3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_3:3,blueCrystal_3:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>greenArmguard_s3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_3:3,greenCrystal_3:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>redArmguard_s4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -660,18 +624,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_4:3,redCrystal_4:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>blueArmguard_s4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_4:3,blueCrystal_4:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>greenArmguard_s4</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -680,34 +636,18 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_4:3,greenCrystal_4:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>redArmguard_s5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_5:3,redCrystal_5:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>blueArmguard_s5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_5:3,blueCrystal_5:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>greenArmguard_s5</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ingot_5:3,greenCrystal_5:3</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>infantryAtkAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -810,78 +750,6 @@
     <t>runes_5:3,greenCrystal_5:3</t>
   </si>
   <si>
-    <t>ingot_2:2,redSoul_2:2,runes_2:2</t>
-  </si>
-  <si>
-    <t>ingot_2:2,blueSoul_2:2,runes_2:2</t>
-  </si>
-  <si>
-    <t>ingot_2:2,greenSoul_2:2,runes_2:2</t>
-  </si>
-  <si>
-    <t>ingot_3:2,redSoul_3:2,runes_3:2</t>
-  </si>
-  <si>
-    <t>ingot_3:2,blueSoul_3:2,runes_3:2</t>
-  </si>
-  <si>
-    <t>ingot_3:2,greenSoul_3:2,runes_3:2</t>
-  </si>
-  <si>
-    <t>ingot_4:2,redSoul_4:2,runes_4:2</t>
-  </si>
-  <si>
-    <t>ingot_4:2,blueSoul_4:2,runes_4:2</t>
-  </si>
-  <si>
-    <t>ingot_4:2,greenSoul_4:2,runes_4:2</t>
-  </si>
-  <si>
-    <t>ingot_5:2,redSoul_5:2,runes_5:2</t>
-  </si>
-  <si>
-    <t>ingot_5:2,blueSoul_5:2,runes_5:2</t>
-  </si>
-  <si>
-    <t>ingot_5:2,greenSoul_5:2,runes_5:2</t>
-  </si>
-  <si>
-    <t>ingot_2:2,redCrystal_2:2,runes_2:2</t>
-  </si>
-  <si>
-    <t>ingot_2:2,blueCrystal_2:2,runes_2:2</t>
-  </si>
-  <si>
-    <t>ingot_2:2,greenCrystal_2:2,runes_2:2</t>
-  </si>
-  <si>
-    <t>ingot_3:2,redCrystal_3:2,runes_3:2</t>
-  </si>
-  <si>
-    <t>ingot_3:2,blueCrystal_3:2,runes_3:2</t>
-  </si>
-  <si>
-    <t>ingot_3:2,greenCrystal_3:2,runes_3:2</t>
-  </si>
-  <si>
-    <t>ingot_4:2,redCrystal_4:2,runes_4:2</t>
-  </si>
-  <si>
-    <t>ingot_4:2,blueCrystal_4:2,runes_4:2</t>
-  </si>
-  <si>
-    <t>ingot_4:2,greenCrystal_4:2,runes_4:2</t>
-  </si>
-  <si>
-    <t>ingot_5:2,redCrystal_5:2,runes_5:2</t>
-  </si>
-  <si>
-    <t>ingot_5:2,blueCrystal_5:2,runes_5:2</t>
-  </si>
-  <si>
-    <t>ingot_5:2,greenCrystal_5:2,runes_5:2</t>
-  </si>
-  <si>
     <t>redSoul_2:2,redCrystal_2:2,runes_2:2</t>
   </si>
   <si>
@@ -931,6 +799,123 @@
   </si>
   <si>
     <t>runes_2:3,greenCrystal_2:3</t>
+  </si>
+  <si>
+    <t>ingo_2:2,redSoul_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingo_2:2,blueSoul_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingo_2:2,greenSoul_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingo_3:2,redSoul_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingo_3:2,blueSoul_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingo_3:2,greenSoul_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingo_4:2,redSoul_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingo_4:2,blueSoul_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingo_4:2,greenSoul_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingo_5:2,redSoul_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingo_5:2,blueSoul_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingo_5:2,greenSoul_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingo_2:2,redCrystal_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingo_2:2,blueCrystal_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingo_2:2,greenCrystal_2:2,runes_2:2</t>
+  </si>
+  <si>
+    <t>ingo_3:2,redCrystal_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingo_3:2,blueCrystal_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingo_3:2,greenCrystal_3:2,runes_3:2</t>
+  </si>
+  <si>
+    <t>ingo_4:2,redCrystal_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingo_4:2,blueCrystal_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingo_4:2,greenCrystal_4:2,runes_4:2</t>
+  </si>
+  <si>
+    <t>ingo_5:2,redCrystal_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingo_5:2,blueCrystal_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingo_5:2,greenCrystal_5:2,runes_5:2</t>
+  </si>
+  <si>
+    <t>ingo_1:3,redCrystal_1:3</t>
+  </si>
+  <si>
+    <t>ingo_1:3,blueCrystal_1:3</t>
+  </si>
+  <si>
+    <t>ingo_1:3,greenCrystal_1:3</t>
+  </si>
+  <si>
+    <t>ingo_2:3,redCrystal_2:3</t>
+  </si>
+  <si>
+    <t>ingo_2:3,blueCrystal_2:3</t>
+  </si>
+  <si>
+    <t>ingo_2:3,greenCrystal_2:3</t>
+  </si>
+  <si>
+    <t>ingo_3:3,redCrystal_3:3</t>
+  </si>
+  <si>
+    <t>ingo_3:3,blueCrystal_3:3</t>
+  </si>
+  <si>
+    <t>ingo_3:3,greenCrystal_3:3</t>
+  </si>
+  <si>
+    <t>ingo_4:3,redCrystal_4:3</t>
+  </si>
+  <si>
+    <t>ingo_4:3,blueCrystal_4:3</t>
+  </si>
+  <si>
+    <t>ingo_4:3,greenCrystal_4:3</t>
+  </si>
+  <si>
+    <t>ingo_5:3,redCrystal_5:3</t>
+  </si>
+  <si>
+    <t>ingo_5:3,blueCrystal_5:3</t>
+  </si>
+  <si>
+    <t>ingo_5:3,greenCrystal_5:3</t>
   </si>
 </sst>
 </file>
@@ -4400,8 +4385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4471,7 +4456,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="I2" s="2">
         <v>1500</v>
@@ -4503,7 +4488,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="I3" s="2">
         <v>1500</v>
@@ -4535,7 +4520,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="I4" s="2">
         <v>1500</v>
@@ -4567,7 +4552,7 @@
         <v>200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="I5" s="2">
         <v>20000</v>
@@ -4599,7 +4584,7 @@
         <v>200</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="I6" s="2">
         <v>20000</v>
@@ -4631,7 +4616,7 @@
         <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="I7" s="2">
         <v>20000</v>
@@ -4663,7 +4648,7 @@
         <v>800</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="I8" s="2">
         <v>112000</v>
@@ -4695,7 +4680,7 @@
         <v>800</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="I9" s="2">
         <v>112000</v>
@@ -4727,7 +4712,7 @@
         <v>800</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I10" s="2">
         <v>112000</v>
@@ -4759,7 +4744,7 @@
         <v>2800</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="I11" s="2">
         <v>348000</v>
@@ -4791,7 +4776,7 @@
         <v>2800</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="I12" s="2">
         <v>348000</v>
@@ -4823,7 +4808,7 @@
         <v>2800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="I13" s="2">
         <v>348000</v>
@@ -4855,7 +4840,7 @@
         <v>11200</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="I14" s="2">
         <v>1044000</v>
@@ -4887,7 +4872,7 @@
         <v>11200</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="I15" s="2">
         <v>1044000</v>
@@ -4919,7 +4904,7 @@
         <v>11200</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="I16" s="2">
         <v>1044000</v>
@@ -4951,7 +4936,7 @@
         <v>200</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I17" s="2">
         <v>20000</v>
@@ -4983,7 +4968,7 @@
         <v>200</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I18" s="2">
         <v>20000</v>
@@ -5015,7 +5000,7 @@
         <v>200</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I19" s="2">
         <v>20000</v>
@@ -5047,7 +5032,7 @@
         <v>800</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I20" s="2">
         <v>112000</v>
@@ -5079,7 +5064,7 @@
         <v>800</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I21" s="2">
         <v>112000</v>
@@ -5111,7 +5096,7 @@
         <v>800</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I22" s="2">
         <v>112000</v>
@@ -5143,7 +5128,7 @@
         <v>2800</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I23" s="2">
         <v>348000</v>
@@ -5175,7 +5160,7 @@
         <v>2800</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I24" s="2">
         <v>348000</v>
@@ -5207,7 +5192,7 @@
         <v>2800</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I25" s="2">
         <v>348000</v>
@@ -5239,7 +5224,7 @@
         <v>11200</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I26" s="2">
         <v>1044000</v>
@@ -5271,7 +5256,7 @@
         <v>11200</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I27" s="2">
         <v>1044000</v>
@@ -5303,7 +5288,7 @@
         <v>11200</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I28" s="2">
         <v>1044000</v>
@@ -5335,7 +5320,7 @@
         <v>200</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I29" s="2">
         <v>20000</v>
@@ -5367,7 +5352,7 @@
         <v>200</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I30" s="2">
         <v>20000</v>
@@ -5399,7 +5384,7 @@
         <v>200</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I31" s="2">
         <v>20000</v>
@@ -5431,7 +5416,7 @@
         <v>800</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I32" s="2">
         <v>112000</v>
@@ -5463,7 +5448,7 @@
         <v>800</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I33" s="2">
         <v>112000</v>
@@ -5495,7 +5480,7 @@
         <v>800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I34" s="2">
         <v>112000</v>
@@ -5527,7 +5512,7 @@
         <v>2800</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I35" s="2">
         <v>348000</v>
@@ -5559,7 +5544,7 @@
         <v>2800</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I36" s="2">
         <v>348000</v>
@@ -5591,7 +5576,7 @@
         <v>2800</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I37" s="2">
         <v>348000</v>
@@ -5623,7 +5608,7 @@
         <v>11200</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I38" s="2">
         <v>1044000</v>
@@ -5655,7 +5640,7 @@
         <v>11200</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I39" s="2">
         <v>1044000</v>
@@ -5687,7 +5672,7 @@
         <v>11200</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I40" s="2">
         <v>1044000</v>
@@ -5719,7 +5704,7 @@
         <v>200</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="I41" s="2">
         <v>20000</v>
@@ -5751,7 +5736,7 @@
         <v>200</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I42" s="2">
         <v>20000</v>
@@ -5783,7 +5768,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="I43" s="2">
         <v>20000</v>
@@ -5815,7 +5800,7 @@
         <v>800</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="I44" s="2">
         <v>112000</v>
@@ -5847,7 +5832,7 @@
         <v>800</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="I45" s="2">
         <v>112000</v>
@@ -5879,7 +5864,7 @@
         <v>800</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="I46" s="2">
         <v>112000</v>
@@ -5911,7 +5896,7 @@
         <v>2800</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="I47" s="2">
         <v>348000</v>
@@ -5943,7 +5928,7 @@
         <v>2800</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="I48" s="2">
         <v>348000</v>
@@ -5975,7 +5960,7 @@
         <v>2800</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="I49" s="2">
         <v>348000</v>
@@ -6007,7 +5992,7 @@
         <v>11200</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="I50" s="2">
         <v>1044000</v>
@@ -6039,7 +6024,7 @@
         <v>11200</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="I51" s="2">
         <v>1044000</v>
@@ -6071,7 +6056,7 @@
         <v>11200</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="I52" s="2">
         <v>1044000</v>
@@ -6103,7 +6088,7 @@
         <v>50</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="I53" s="2">
         <v>1500</v>
@@ -6114,7 +6099,7 @@
     </row>
     <row r="54" spans="1:10" ht="20" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>40</v>
@@ -6135,7 +6120,7 @@
         <v>50</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="I54" s="2">
         <v>1500</v>
@@ -6146,7 +6131,7 @@
     </row>
     <row r="55" spans="1:10" ht="20" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>41</v>
@@ -6155,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E55" s="2">
         <v>100</v>
@@ -6167,7 +6152,7 @@
         <v>50</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="I55" s="2">
         <v>1500</v>
@@ -6199,7 +6184,7 @@
         <v>200</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="I56" s="2">
         <v>20000</v>
@@ -6210,7 +6195,7 @@
     </row>
     <row r="57" spans="1:10" ht="20" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>40</v>
@@ -6219,7 +6204,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E57" s="2">
         <v>400</v>
@@ -6231,7 +6216,7 @@
         <v>200</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="I57" s="2">
         <v>20000</v>
@@ -6242,7 +6227,7 @@
     </row>
     <row r="58" spans="1:10" ht="20" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>41</v>
@@ -6251,7 +6236,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E58" s="2">
         <v>400</v>
@@ -6263,7 +6248,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="I58" s="2">
         <v>20000</v>
@@ -6274,7 +6259,7 @@
     </row>
     <row r="59" spans="1:10" ht="20" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>39</v>
@@ -6295,7 +6280,7 @@
         <v>800</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="I59" s="2">
         <v>112000</v>
@@ -6306,7 +6291,7 @@
     </row>
     <row r="60" spans="1:10" ht="20" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>40</v>
@@ -6315,7 +6300,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E60" s="2">
         <v>1600</v>
@@ -6327,7 +6312,7 @@
         <v>800</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="I60" s="2">
         <v>112000</v>
@@ -6338,7 +6323,7 @@
     </row>
     <row r="61" spans="1:10" ht="20" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>41</v>
@@ -6347,7 +6332,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E61" s="2">
         <v>1600</v>
@@ -6359,7 +6344,7 @@
         <v>800</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="I61" s="2">
         <v>112000</v>
@@ -6370,7 +6355,7 @@
     </row>
     <row r="62" spans="1:10" ht="20" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>39</v>
@@ -6379,7 +6364,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E62" s="2">
         <v>5600</v>
@@ -6391,7 +6376,7 @@
         <v>2800</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="I62" s="2">
         <v>348000</v>
@@ -6402,7 +6387,7 @@
     </row>
     <row r="63" spans="1:10" ht="20" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>40</v>
@@ -6411,7 +6396,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E63" s="2">
         <v>5600</v>
@@ -6423,7 +6408,7 @@
         <v>2800</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="I63" s="2">
         <v>348000</v>
@@ -6434,7 +6419,7 @@
     </row>
     <row r="64" spans="1:10" ht="20" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>41</v>
@@ -6443,7 +6428,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E64" s="2">
         <v>5600</v>
@@ -6455,7 +6440,7 @@
         <v>2800</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="I64" s="2">
         <v>348000</v>
@@ -6466,7 +6451,7 @@
     </row>
     <row r="65" spans="1:10" ht="20" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>39</v>
@@ -6487,7 +6472,7 @@
         <v>11200</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="I65" s="2">
         <v>1044000</v>
@@ -6498,7 +6483,7 @@
     </row>
     <row r="66" spans="1:10" ht="20" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>40</v>
@@ -6507,7 +6492,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E66" s="2">
         <v>22400</v>
@@ -6519,7 +6504,7 @@
         <v>11200</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="I66" s="2">
         <v>1044000</v>
@@ -6530,7 +6515,7 @@
     </row>
     <row r="67" spans="1:10" ht="20" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>41</v>
@@ -6551,7 +6536,7 @@
         <v>11200</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="I67" s="2">
         <v>1044000</v>
@@ -6631,7 +6616,7 @@
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2">
         <v>0.01</v>
@@ -6639,7 +6624,7 @@
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2">
         <v>0.01</v>
@@ -6647,7 +6632,7 @@
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B4" s="2">
         <v>0.01</v>
@@ -6655,7 +6640,7 @@
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B5" s="2">
         <v>0.01</v>
@@ -6663,7 +6648,7 @@
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B6" s="2">
         <v>0.01</v>
@@ -6671,7 +6656,7 @@
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B7" s="2">
         <v>0.01</v>
@@ -6679,7 +6664,7 @@
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B8" s="2">
         <v>0.01</v>
@@ -6687,7 +6672,7 @@
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B9" s="2">
         <v>0.01</v>
@@ -6695,7 +6680,7 @@
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B10" s="2">
         <v>0.01</v>
@@ -6703,7 +6688,7 @@
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B11" s="2">
         <v>0.01</v>
@@ -6711,7 +6696,7 @@
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2">
         <v>0.01</v>
@@ -6719,7 +6704,7 @@
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2">
         <v>0.01</v>
@@ -6727,7 +6712,7 @@
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2">
         <v>0.01</v>
@@ -6735,7 +6720,7 @@
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2">
         <v>0.01</v>
@@ -6743,7 +6728,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2">
         <v>0.01</v>
@@ -6751,7 +6736,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2">
         <v>0.01</v>
@@ -6759,7 +6744,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B18" s="2">
         <v>0.01</v>
@@ -6767,7 +6752,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2">
         <v>0.01</v>

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1620" windowWidth="19460" windowHeight="15720" tabRatio="883"/>
+    <workbookView xWindow="8540" yWindow="1640" windowWidth="27480" windowHeight="17300" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -1096,7 +1096,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1408">
+  <cellStyleXfs count="1430">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1111,6 +1111,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2528,7 +2550,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1408">
+  <cellStyles count="1430">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3235,6 +3257,17 @@
     <cellStyle name="超链接" xfId="1402" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1404" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1428" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3934,6 +3967,17 @@
     <cellStyle name="访问过的超链接" xfId="1403" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1405" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1429" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4385,8 +4429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4397,8 +4441,8 @@
     <col min="5" max="7" width="17.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="40.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="20.6640625" style="2"/>
+    <col min="10" max="11" width="12.83203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
@@ -4459,7 +4503,7 @@
         <v>169</v>
       </c>
       <c r="I2" s="2">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="J2" s="2">
         <v>2400</v>
@@ -4491,7 +4535,7 @@
         <v>191</v>
       </c>
       <c r="I3" s="2">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="J3" s="2">
         <v>2400</v>
@@ -4523,7 +4567,7 @@
         <v>192</v>
       </c>
       <c r="I4" s="2">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="J4" s="2">
         <v>2400</v>
@@ -4555,7 +4599,7 @@
         <v>193</v>
       </c>
       <c r="I5" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J5" s="2">
         <v>4800</v>
@@ -4587,7 +4631,7 @@
         <v>194</v>
       </c>
       <c r="I6" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J6" s="2">
         <v>4800</v>
@@ -4619,7 +4663,7 @@
         <v>195</v>
       </c>
       <c r="I7" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J7" s="2">
         <v>4800</v>
@@ -4651,7 +4695,7 @@
         <v>170</v>
       </c>
       <c r="I8" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J8" s="2">
         <v>9600</v>
@@ -4683,7 +4727,7 @@
         <v>171</v>
       </c>
       <c r="I9" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J9" s="2">
         <v>9600</v>
@@ -4715,7 +4759,7 @@
         <v>172</v>
       </c>
       <c r="I10" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J10" s="2">
         <v>9600</v>
@@ -4747,7 +4791,7 @@
         <v>173</v>
       </c>
       <c r="I11" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J11" s="2">
         <v>19200</v>
@@ -4779,7 +4823,7 @@
         <v>174</v>
       </c>
       <c r="I12" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J12" s="2">
         <v>19200</v>
@@ -4811,7 +4855,7 @@
         <v>175</v>
       </c>
       <c r="I13" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J13" s="2">
         <v>19200</v>
@@ -4843,7 +4887,7 @@
         <v>176</v>
       </c>
       <c r="I14" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J14" s="2">
         <v>38400</v>
@@ -4875,7 +4919,7 @@
         <v>177</v>
       </c>
       <c r="I15" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J15" s="2">
         <v>38400</v>
@@ -4907,7 +4951,7 @@
         <v>178</v>
       </c>
       <c r="I16" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J16" s="2">
         <v>38400</v>
@@ -4939,7 +4983,7 @@
         <v>196</v>
       </c>
       <c r="I17" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J17" s="2">
         <v>4800</v>
@@ -4971,7 +5015,7 @@
         <v>197</v>
       </c>
       <c r="I18" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J18" s="2">
         <v>4800</v>
@@ -5003,7 +5047,7 @@
         <v>198</v>
       </c>
       <c r="I19" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J19" s="2">
         <v>4800</v>
@@ -5035,7 +5079,7 @@
         <v>199</v>
       </c>
       <c r="I20" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J20" s="2">
         <v>9600</v>
@@ -5067,7 +5111,7 @@
         <v>200</v>
       </c>
       <c r="I21" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J21" s="2">
         <v>9600</v>
@@ -5099,7 +5143,7 @@
         <v>201</v>
       </c>
       <c r="I22" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J22" s="2">
         <v>9600</v>
@@ -5131,7 +5175,7 @@
         <v>202</v>
       </c>
       <c r="I23" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J23" s="2">
         <v>19200</v>
@@ -5163,7 +5207,7 @@
         <v>203</v>
       </c>
       <c r="I24" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J24" s="2">
         <v>19200</v>
@@ -5195,7 +5239,7 @@
         <v>204</v>
       </c>
       <c r="I25" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J25" s="2">
         <v>19200</v>
@@ -5227,7 +5271,7 @@
         <v>205</v>
       </c>
       <c r="I26" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J26" s="2">
         <v>38400</v>
@@ -5259,7 +5303,7 @@
         <v>206</v>
       </c>
       <c r="I27" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J27" s="2">
         <v>38400</v>
@@ -5291,7 +5335,7 @@
         <v>207</v>
       </c>
       <c r="I28" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J28" s="2">
         <v>38400</v>
@@ -5323,7 +5367,7 @@
         <v>208</v>
       </c>
       <c r="I29" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J29" s="2">
         <v>4800</v>
@@ -5355,7 +5399,7 @@
         <v>209</v>
       </c>
       <c r="I30" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J30" s="2">
         <v>4800</v>
@@ -5387,7 +5431,7 @@
         <v>210</v>
       </c>
       <c r="I31" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J31" s="2">
         <v>4800</v>
@@ -5419,7 +5463,7 @@
         <v>211</v>
       </c>
       <c r="I32" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J32" s="2">
         <v>9600</v>
@@ -5451,7 +5495,7 @@
         <v>212</v>
       </c>
       <c r="I33" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J33" s="2">
         <v>9600</v>
@@ -5483,7 +5527,7 @@
         <v>213</v>
       </c>
       <c r="I34" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J34" s="2">
         <v>9600</v>
@@ -5515,7 +5559,7 @@
         <v>214</v>
       </c>
       <c r="I35" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J35" s="2">
         <v>19200</v>
@@ -5547,7 +5591,7 @@
         <v>215</v>
       </c>
       <c r="I36" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J36" s="2">
         <v>19200</v>
@@ -5579,7 +5623,7 @@
         <v>216</v>
       </c>
       <c r="I37" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J37" s="2">
         <v>19200</v>
@@ -5611,7 +5655,7 @@
         <v>217</v>
       </c>
       <c r="I38" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J38" s="2">
         <v>38400</v>
@@ -5643,7 +5687,7 @@
         <v>218</v>
       </c>
       <c r="I39" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J39" s="2">
         <v>38400</v>
@@ -5675,7 +5719,7 @@
         <v>219</v>
       </c>
       <c r="I40" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J40" s="2">
         <v>38400</v>
@@ -5707,7 +5751,7 @@
         <v>179</v>
       </c>
       <c r="I41" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J41" s="2">
         <v>4800</v>
@@ -5739,7 +5783,7 @@
         <v>180</v>
       </c>
       <c r="I42" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J42" s="2">
         <v>4800</v>
@@ -5771,7 +5815,7 @@
         <v>181</v>
       </c>
       <c r="I43" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J43" s="2">
         <v>4800</v>
@@ -5803,7 +5847,7 @@
         <v>182</v>
       </c>
       <c r="I44" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J44" s="2">
         <v>9600</v>
@@ -5835,7 +5879,7 @@
         <v>183</v>
       </c>
       <c r="I45" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J45" s="2">
         <v>9600</v>
@@ -5867,7 +5911,7 @@
         <v>184</v>
       </c>
       <c r="I46" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J46" s="2">
         <v>9600</v>
@@ -5899,7 +5943,7 @@
         <v>185</v>
       </c>
       <c r="I47" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J47" s="2">
         <v>19200</v>
@@ -5931,7 +5975,7 @@
         <v>186</v>
       </c>
       <c r="I48" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J48" s="2">
         <v>19200</v>
@@ -5963,7 +6007,7 @@
         <v>187</v>
       </c>
       <c r="I49" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J49" s="2">
         <v>19200</v>
@@ -5995,7 +6039,7 @@
         <v>188</v>
       </c>
       <c r="I50" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J50" s="2">
         <v>38400</v>
@@ -6027,7 +6071,7 @@
         <v>189</v>
       </c>
       <c r="I51" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J51" s="2">
         <v>38400</v>
@@ -6059,7 +6103,7 @@
         <v>190</v>
       </c>
       <c r="I52" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J52" s="2">
         <v>38400</v>
@@ -6091,7 +6135,7 @@
         <v>220</v>
       </c>
       <c r="I53" s="2">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="J53" s="2">
         <v>2400</v>
@@ -6123,7 +6167,7 @@
         <v>221</v>
       </c>
       <c r="I54" s="2">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="J54" s="2">
         <v>2400</v>
@@ -6155,7 +6199,7 @@
         <v>222</v>
       </c>
       <c r="I55" s="2">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="J55" s="2">
         <v>2400</v>
@@ -6187,7 +6231,7 @@
         <v>223</v>
       </c>
       <c r="I56" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J56" s="2">
         <v>4800</v>
@@ -6219,7 +6263,7 @@
         <v>224</v>
       </c>
       <c r="I57" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J57" s="2">
         <v>4800</v>
@@ -6251,7 +6295,7 @@
         <v>225</v>
       </c>
       <c r="I58" s="2">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="J58" s="2">
         <v>4800</v>
@@ -6283,7 +6327,7 @@
         <v>226</v>
       </c>
       <c r="I59" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J59" s="2">
         <v>9600</v>
@@ -6315,7 +6359,7 @@
         <v>227</v>
       </c>
       <c r="I60" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J60" s="2">
         <v>9600</v>
@@ -6347,7 +6391,7 @@
         <v>228</v>
       </c>
       <c r="I61" s="2">
-        <v>112000</v>
+        <v>180000</v>
       </c>
       <c r="J61" s="2">
         <v>9600</v>
@@ -6379,7 +6423,7 @@
         <v>229</v>
       </c>
       <c r="I62" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J62" s="2">
         <v>19200</v>
@@ -6411,7 +6455,7 @@
         <v>230</v>
       </c>
       <c r="I63" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J63" s="2">
         <v>19200</v>
@@ -6443,7 +6487,7 @@
         <v>231</v>
       </c>
       <c r="I64" s="2">
-        <v>348000</v>
+        <v>540000</v>
       </c>
       <c r="J64" s="2">
         <v>19200</v>
@@ -6475,7 +6519,7 @@
         <v>232</v>
       </c>
       <c r="I65" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J65" s="2">
         <v>38400</v>
@@ -6507,7 +6551,7 @@
         <v>233</v>
       </c>
       <c r="I66" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J66" s="2">
         <v>38400</v>
@@ -6539,7 +6583,7 @@
         <v>234</v>
       </c>
       <c r="I67" s="2">
-        <v>1044000</v>
+        <v>1620000</v>
       </c>
       <c r="J67" s="2">
         <v>38400</v>

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="1640" windowWidth="27480" windowHeight="17300" tabRatio="883"/>
+    <workbookView xWindow="200" yWindow="0" windowWidth="35600" windowHeight="21140" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -1096,7 +1096,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1430">
+  <cellStyleXfs count="1444">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1111,6 +1111,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2550,7 +2564,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1430">
+  <cellStyles count="1444">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3268,6 +3282,13 @@
     <cellStyle name="超链接" xfId="1424" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1426" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1442" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3978,6 +3999,13 @@
     <cellStyle name="访问过的超链接" xfId="1425" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1427" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1443" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -6641,7 +6669,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6663,7 +6691,7 @@
         <v>151</v>
       </c>
       <c r="B2" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
@@ -6671,7 +6699,7 @@
         <v>152</v>
       </c>
       <c r="B3" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
@@ -6679,7 +6707,7 @@
         <v>153</v>
       </c>
       <c r="B4" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
@@ -6687,7 +6715,7 @@
         <v>154</v>
       </c>
       <c r="B5" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
@@ -6695,7 +6723,7 @@
         <v>155</v>
       </c>
       <c r="B6" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
@@ -6703,7 +6731,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
@@ -6711,7 +6739,7 @@
         <v>157</v>
       </c>
       <c r="B8" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
@@ -6719,7 +6747,7 @@
         <v>158</v>
       </c>
       <c r="B9" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
@@ -6727,7 +6755,7 @@
         <v>159</v>
       </c>
       <c r="B10" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
@@ -6735,7 +6763,7 @@
         <v>160</v>
       </c>
       <c r="B11" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
@@ -6743,7 +6771,7 @@
         <v>161</v>
       </c>
       <c r="B12" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
@@ -6751,7 +6779,7 @@
         <v>162</v>
       </c>
       <c r="B13" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
@@ -6759,7 +6787,7 @@
         <v>163</v>
       </c>
       <c r="B14" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
@@ -6767,7 +6795,7 @@
         <v>164</v>
       </c>
       <c r="B15" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
@@ -6775,7 +6803,7 @@
         <v>165</v>
       </c>
       <c r="B16" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
@@ -6783,7 +6811,7 @@
         <v>166</v>
       </c>
       <c r="B17" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
@@ -6791,7 +6819,7 @@
         <v>167</v>
       </c>
       <c r="B18" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
@@ -6799,7 +6827,7 @@
         <v>168</v>
       </c>
       <c r="B19" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20" customHeight="1">
@@ -7339,7 +7367,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C2" sqref="C2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7374,10 +7402,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -7391,10 +7419,10 @@
         <v>200</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -7408,10 +7436,10 @@
         <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -7425,10 +7453,10 @@
         <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -7442,10 +7470,10 @@
         <v>2400</v>
       </c>
       <c r="C6" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -7459,10 +7487,10 @@
         <v>1600</v>
       </c>
       <c r="C7" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -7476,10 +7504,10 @@
         <v>3200</v>
       </c>
       <c r="C8" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -7493,10 +7521,10 @@
         <v>9600</v>
       </c>
       <c r="C9" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -7510,10 +7538,10 @@
         <v>12800</v>
       </c>
       <c r="C10" s="2">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -7527,10 +7555,10 @@
         <v>5600</v>
       </c>
       <c r="C11" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -7544,10 +7572,10 @@
         <v>11200</v>
       </c>
       <c r="C12" s="2">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -7561,10 +7589,10 @@
         <v>33600</v>
       </c>
       <c r="C13" s="2">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D13" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -7578,10 +7606,10 @@
         <v>44800</v>
       </c>
       <c r="C14" s="2">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -7595,10 +7623,10 @@
         <v>89600</v>
       </c>
       <c r="C15" s="2">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D15" s="2">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -7612,10 +7640,10 @@
         <v>22400</v>
       </c>
       <c r="C16" s="2">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="D16" s="2">
-        <v>341</v>
+        <v>281</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -7629,10 +7657,10 @@
         <v>44800</v>
       </c>
       <c r="C17" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -7646,10 +7674,10 @@
         <v>134400</v>
       </c>
       <c r="C18" s="2">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="D18" s="2">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -7663,10 +7691,10 @@
         <v>179200</v>
       </c>
       <c r="C19" s="2">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="D19" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -7680,10 +7708,10 @@
         <v>358400</v>
       </c>
       <c r="C20" s="2">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="D20" s="2">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -7697,10 +7725,10 @@
         <v>716800</v>
       </c>
       <c r="C21" s="2">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="D21" s="2">
-        <v>577</v>
+        <v>633</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -7890,7 +7918,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
+      <selection activeCell="C2" sqref="C2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7924,10 +7952,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -7941,10 +7969,10 @@
         <v>200</v>
       </c>
       <c r="C3" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -7958,10 +7986,10 @@
         <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -7975,10 +8003,10 @@
         <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -7992,10 +8020,10 @@
         <v>2400</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -8009,10 +8037,10 @@
         <v>1600</v>
       </c>
       <c r="C7" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -8026,10 +8054,10 @@
         <v>3200</v>
       </c>
       <c r="C8" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -8043,10 +8071,10 @@
         <v>9600</v>
       </c>
       <c r="C9" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -8060,10 +8088,10 @@
         <v>12800</v>
       </c>
       <c r="C10" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -8077,10 +8105,10 @@
         <v>5600</v>
       </c>
       <c r="C11" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -8094,10 +8122,10 @@
         <v>11200</v>
       </c>
       <c r="C12" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -8111,10 +8139,10 @@
         <v>33600</v>
       </c>
       <c r="C13" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -8128,10 +8156,10 @@
         <v>44800</v>
       </c>
       <c r="C14" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D14" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -8145,10 +8173,10 @@
         <v>89600</v>
       </c>
       <c r="C15" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D15" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -8162,10 +8190,10 @@
         <v>22400</v>
       </c>
       <c r="C16" s="2">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="D16" s="2">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -8179,10 +8207,10 @@
         <v>44800</v>
       </c>
       <c r="C17" s="2">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="D17" s="2">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -8195,11 +8223,11 @@
       <c r="B18" s="4">
         <v>134400</v>
       </c>
-      <c r="C18" s="2">
-        <v>449</v>
-      </c>
-      <c r="D18" s="2">
-        <v>315</v>
+      <c r="C18" s="5">
+        <v>415</v>
+      </c>
+      <c r="D18" s="5">
+        <v>291</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -8212,11 +8240,11 @@
       <c r="B19" s="4">
         <v>179200</v>
       </c>
-      <c r="C19" s="5">
-        <v>499</v>
-      </c>
-      <c r="D19" s="5">
-        <v>351</v>
+      <c r="C19" s="2">
+        <v>488</v>
+      </c>
+      <c r="D19" s="2">
+        <v>343</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -8230,10 +8258,10 @@
         <v>358400</v>
       </c>
       <c r="C20" s="2">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="D20" s="2">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -8247,10 +8275,10 @@
         <v>716800</v>
       </c>
       <c r="C21" s="2">
-        <v>616</v>
+        <v>675</v>
       </c>
       <c r="D21" s="2">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -8543,7 +8571,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8577,10 +8605,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -8594,10 +8622,10 @@
         <v>200</v>
       </c>
       <c r="C3" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -8611,10 +8639,10 @@
         <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -8628,10 +8656,10 @@
         <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -8645,10 +8673,10 @@
         <v>2400</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -8662,10 +8690,10 @@
         <v>1600</v>
       </c>
       <c r="C7" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -8679,10 +8707,10 @@
         <v>3200</v>
       </c>
       <c r="C8" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -8696,10 +8724,10 @@
         <v>9600</v>
       </c>
       <c r="C9" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -8713,10 +8741,10 @@
         <v>12800</v>
       </c>
       <c r="C10" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -8730,10 +8758,10 @@
         <v>5600</v>
       </c>
       <c r="C11" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -8747,10 +8775,10 @@
         <v>11200</v>
       </c>
       <c r="C12" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D12" s="2">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -8764,10 +8792,10 @@
         <v>33600</v>
       </c>
       <c r="C13" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -8781,10 +8809,10 @@
         <v>44800</v>
       </c>
       <c r="C14" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D14" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -8798,10 +8826,10 @@
         <v>89600</v>
       </c>
       <c r="C15" s="2">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D15" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -8815,10 +8843,10 @@
         <v>22400</v>
       </c>
       <c r="C16" s="2">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="D16" s="2">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -8832,10 +8860,10 @@
         <v>44800</v>
       </c>
       <c r="C17" s="2">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="D17" s="2">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -8848,11 +8876,11 @@
       <c r="B18" s="4">
         <v>134400</v>
       </c>
-      <c r="C18" s="2">
-        <v>449</v>
-      </c>
-      <c r="D18" s="2">
-        <v>315</v>
+      <c r="C18" s="5">
+        <v>415</v>
+      </c>
+      <c r="D18" s="5">
+        <v>291</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -8865,11 +8893,11 @@
       <c r="B19" s="4">
         <v>179200</v>
       </c>
-      <c r="C19" s="5">
-        <v>499</v>
-      </c>
-      <c r="D19" s="5">
-        <v>351</v>
+      <c r="C19" s="2">
+        <v>488</v>
+      </c>
+      <c r="D19" s="2">
+        <v>343</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -8883,10 +8911,10 @@
         <v>358400</v>
       </c>
       <c r="C20" s="2">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="D20" s="2">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -8900,10 +8928,10 @@
         <v>716800</v>
       </c>
       <c r="C21" s="2">
-        <v>616</v>
+        <v>675</v>
       </c>
       <c r="D21" s="2">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -9356,7 +9384,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D2" sqref="D2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9393,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -9410,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -9427,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -9444,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -9461,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -9478,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -9495,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -9512,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -9529,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -9546,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -9563,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -9580,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -9597,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>852</v>
+        <v>702</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -9614,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>947</v>
+        <v>826</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -9631,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>1053</v>
+        <v>972</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -9648,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>1170</v>
+        <v>1144</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -9665,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>1300</v>
+        <v>1346</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -9682,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>1444</v>
+        <v>1584</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -9974,8 +10002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E19"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10011,7 +10039,7 @@
         <v>400</v>
       </c>
       <c r="C2" s="2">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -10028,7 +10056,7 @@
         <v>800</v>
       </c>
       <c r="C3" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -10045,7 +10073,7 @@
         <v>2400</v>
       </c>
       <c r="C4" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -10062,7 +10090,7 @@
         <v>1600</v>
       </c>
       <c r="C5" s="2">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -10079,7 +10107,7 @@
         <v>3200</v>
       </c>
       <c r="C6" s="2">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -10096,7 +10124,7 @@
         <v>9600</v>
       </c>
       <c r="C7" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -10113,7 +10141,7 @@
         <v>12800</v>
       </c>
       <c r="C8" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -10130,7 +10158,7 @@
         <v>5600</v>
       </c>
       <c r="C9" s="2">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -10147,7 +10175,7 @@
         <v>11200</v>
       </c>
       <c r="C10" s="2">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -10164,7 +10192,7 @@
         <v>33600</v>
       </c>
       <c r="C11" s="2">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -10181,7 +10209,7 @@
         <v>44800</v>
       </c>
       <c r="C12" s="2">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -10198,7 +10226,7 @@
         <v>89600</v>
       </c>
       <c r="C13" s="2">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -10215,7 +10243,7 @@
         <v>22400</v>
       </c>
       <c r="C14" s="2">
-        <v>606</v>
+        <v>499</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -10232,7 +10260,7 @@
         <v>44800</v>
       </c>
       <c r="C15" s="2">
-        <v>673</v>
+        <v>587</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -10249,7 +10277,7 @@
         <v>134400</v>
       </c>
       <c r="C16" s="2">
-        <v>748</v>
+        <v>691</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -10266,7 +10294,7 @@
         <v>179200</v>
       </c>
       <c r="C17" s="2">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -10283,7 +10311,7 @@
         <v>358400</v>
       </c>
       <c r="C18" s="2">
-        <v>924</v>
+        <v>957</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -10300,7 +10328,7 @@
         <v>716800</v>
       </c>
       <c r="C19" s="2">
-        <v>1027</v>
+        <v>1126</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -10596,7 +10624,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E19"/>
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10636,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -10653,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -10670,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -10687,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -10704,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>188</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -10721,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>221</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -10738,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>261</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -10755,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>353</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -10772,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>415</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -10789,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>489</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -10806,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>575</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -10823,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>677</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -10840,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>947</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -10857,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1053</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -10874,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>1170</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -10891,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>1300</v>
+        <v>715</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -10908,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>1444</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -10925,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>1605</v>
+        <v>990</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="35600" windowHeight="21140" tabRatio="883"/>
+    <workbookView xWindow="660" yWindow="1240" windowWidth="35600" windowHeight="21140" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -664,22 +664,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>hHunterAtkAdd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>hunterHpAdd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>hunterLoadAdd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>hunterMarchAdd</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>cavalryAtkAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -916,6 +900,22 @@
   </si>
   <si>
     <t>ingo_5:3,greenCrystal_5:3</t>
+  </si>
+  <si>
+    <t>archerAtkAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerHpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerLoadAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archerMarchAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4457,7 +4457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -4528,7 +4528,7 @@
         <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I2" s="2">
         <v>5000</v>
@@ -4560,7 +4560,7 @@
         <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I3" s="2">
         <v>5000</v>
@@ -4592,7 +4592,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I4" s="2">
         <v>5000</v>
@@ -4624,7 +4624,7 @@
         <v>200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I5" s="2">
         <v>60000</v>
@@ -4656,7 +4656,7 @@
         <v>200</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I6" s="2">
         <v>60000</v>
@@ -4688,7 +4688,7 @@
         <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I7" s="2">
         <v>60000</v>
@@ -4720,7 +4720,7 @@
         <v>800</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I8" s="2">
         <v>180000</v>
@@ -4752,7 +4752,7 @@
         <v>800</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I9" s="2">
         <v>180000</v>
@@ -4784,7 +4784,7 @@
         <v>800</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I10" s="2">
         <v>180000</v>
@@ -4816,7 +4816,7 @@
         <v>2800</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I11" s="2">
         <v>540000</v>
@@ -4848,7 +4848,7 @@
         <v>2800</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I12" s="2">
         <v>540000</v>
@@ -4880,7 +4880,7 @@
         <v>2800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I13" s="2">
         <v>540000</v>
@@ -4912,7 +4912,7 @@
         <v>11200</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I14" s="2">
         <v>1620000</v>
@@ -4944,7 +4944,7 @@
         <v>11200</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I15" s="2">
         <v>1620000</v>
@@ -4976,7 +4976,7 @@
         <v>11200</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I16" s="2">
         <v>1620000</v>
@@ -5008,7 +5008,7 @@
         <v>200</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I17" s="2">
         <v>60000</v>
@@ -5040,7 +5040,7 @@
         <v>200</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I18" s="2">
         <v>60000</v>
@@ -5072,7 +5072,7 @@
         <v>200</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I19" s="2">
         <v>60000</v>
@@ -5104,7 +5104,7 @@
         <v>800</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I20" s="2">
         <v>180000</v>
@@ -5136,7 +5136,7 @@
         <v>800</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I21" s="2">
         <v>180000</v>
@@ -5168,7 +5168,7 @@
         <v>800</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I22" s="2">
         <v>180000</v>
@@ -5200,7 +5200,7 @@
         <v>2800</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I23" s="2">
         <v>540000</v>
@@ -5232,7 +5232,7 @@
         <v>2800</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I24" s="2">
         <v>540000</v>
@@ -5264,7 +5264,7 @@
         <v>2800</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I25" s="2">
         <v>540000</v>
@@ -5296,7 +5296,7 @@
         <v>11200</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I26" s="2">
         <v>1620000</v>
@@ -5328,7 +5328,7 @@
         <v>11200</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I27" s="2">
         <v>1620000</v>
@@ -5360,7 +5360,7 @@
         <v>11200</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I28" s="2">
         <v>1620000</v>
@@ -5392,7 +5392,7 @@
         <v>200</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I29" s="2">
         <v>60000</v>
@@ -5424,7 +5424,7 @@
         <v>200</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I30" s="2">
         <v>60000</v>
@@ -5456,7 +5456,7 @@
         <v>200</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I31" s="2">
         <v>60000</v>
@@ -5488,7 +5488,7 @@
         <v>800</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I32" s="2">
         <v>180000</v>
@@ -5520,7 +5520,7 @@
         <v>800</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I33" s="2">
         <v>180000</v>
@@ -5552,7 +5552,7 @@
         <v>800</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I34" s="2">
         <v>180000</v>
@@ -5584,7 +5584,7 @@
         <v>2800</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I35" s="2">
         <v>540000</v>
@@ -5616,7 +5616,7 @@
         <v>2800</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I36" s="2">
         <v>540000</v>
@@ -5648,7 +5648,7 @@
         <v>2800</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I37" s="2">
         <v>540000</v>
@@ -5680,7 +5680,7 @@
         <v>11200</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I38" s="2">
         <v>1620000</v>
@@ -5712,7 +5712,7 @@
         <v>11200</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I39" s="2">
         <v>1620000</v>
@@ -5744,7 +5744,7 @@
         <v>11200</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I40" s="2">
         <v>1620000</v>
@@ -5776,7 +5776,7 @@
         <v>200</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I41" s="2">
         <v>60000</v>
@@ -5808,7 +5808,7 @@
         <v>200</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I42" s="2">
         <v>60000</v>
@@ -5840,7 +5840,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I43" s="2">
         <v>60000</v>
@@ -5872,7 +5872,7 @@
         <v>800</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I44" s="2">
         <v>180000</v>
@@ -5904,7 +5904,7 @@
         <v>800</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I45" s="2">
         <v>180000</v>
@@ -5936,7 +5936,7 @@
         <v>800</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I46" s="2">
         <v>180000</v>
@@ -5968,7 +5968,7 @@
         <v>2800</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I47" s="2">
         <v>540000</v>
@@ -6000,7 +6000,7 @@
         <v>2800</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I48" s="2">
         <v>540000</v>
@@ -6032,7 +6032,7 @@
         <v>2800</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I49" s="2">
         <v>540000</v>
@@ -6064,7 +6064,7 @@
         <v>11200</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I50" s="2">
         <v>1620000</v>
@@ -6096,7 +6096,7 @@
         <v>11200</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I51" s="2">
         <v>1620000</v>
@@ -6128,7 +6128,7 @@
         <v>11200</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I52" s="2">
         <v>1620000</v>
@@ -6160,7 +6160,7 @@
         <v>50</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I53" s="2">
         <v>5000</v>
@@ -6192,7 +6192,7 @@
         <v>50</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I54" s="2">
         <v>5000</v>
@@ -6224,7 +6224,7 @@
         <v>50</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I55" s="2">
         <v>5000</v>
@@ -6256,7 +6256,7 @@
         <v>200</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I56" s="2">
         <v>60000</v>
@@ -6288,7 +6288,7 @@
         <v>200</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I57" s="2">
         <v>60000</v>
@@ -6320,7 +6320,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I58" s="2">
         <v>60000</v>
@@ -6352,7 +6352,7 @@
         <v>800</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I59" s="2">
         <v>180000</v>
@@ -6384,7 +6384,7 @@
         <v>800</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I60" s="2">
         <v>180000</v>
@@ -6416,7 +6416,7 @@
         <v>800</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I61" s="2">
         <v>180000</v>
@@ -6448,7 +6448,7 @@
         <v>2800</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I62" s="2">
         <v>540000</v>
@@ -6480,7 +6480,7 @@
         <v>2800</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I63" s="2">
         <v>540000</v>
@@ -6512,7 +6512,7 @@
         <v>2800</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I64" s="2">
         <v>540000</v>
@@ -6544,7 +6544,7 @@
         <v>11200</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I65" s="2">
         <v>1620000</v>
@@ -6576,7 +6576,7 @@
         <v>11200</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I66" s="2">
         <v>1620000</v>
@@ -6608,7 +6608,7 @@
         <v>11200</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I67" s="2">
         <v>1620000</v>
@@ -6668,8 +6668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="B6" s="2">
         <v>0.02</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="B7" s="2">
         <v>0.02</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="B8" s="2">
         <v>0.02</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="B9" s="2">
         <v>0.02</v>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B10" s="2">
         <v>0.02</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B11" s="2">
         <v>0.02</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2">
         <v>0.02</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2">
         <v>0.02</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2">
         <v>0.02</v>
@@ -6792,7 +6792,7 @@
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2">
         <v>0.02</v>
@@ -6800,7 +6800,7 @@
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2">
         <v>0.02</v>
@@ -6808,7 +6808,7 @@
     </row>
     <row r="17" spans="1:2" ht="20" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2">
         <v>0.02</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="18" spans="1:2" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B18" s="2">
         <v>0.02</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="19" spans="1:2" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2">
         <v>0.02</v>

--- a/gameData/shared/DragonEquipments.xlsx
+++ b/gameData/shared/DragonEquipments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1240" windowWidth="35600" windowHeight="21140" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="-25020" yWindow="0" windowWidth="25600" windowHeight="15320" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="equipments" sheetId="62" r:id="rId1"/>
@@ -1096,7 +1096,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1444">
+  <cellStyleXfs count="1490">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1111,6 +1111,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2564,7 +2610,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1444">
+  <cellStyles count="1490">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3289,6 +3335,29 @@
     <cellStyle name="超链接" xfId="1438" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1440" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1488" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4006,6 +4075,29 @@
     <cellStyle name="访问过的超链接" xfId="1439" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1441" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1489" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4458,7 +4550,7 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6668,7 +6760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -7366,8 +7458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E21"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7402,10 +7494,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -7419,10 +7511,10 @@
         <v>200</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -7436,10 +7528,10 @@
         <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -7453,10 +7545,10 @@
         <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -7470,10 +7562,10 @@
         <v>2400</v>
       </c>
       <c r="C6" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -7487,10 +7579,10 @@
         <v>1600</v>
       </c>
       <c r="C7" s="2">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -7504,10 +7596,10 @@
         <v>3200</v>
       </c>
       <c r="C8" s="2">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -7521,10 +7613,10 @@
         <v>9600</v>
       </c>
       <c r="C9" s="2">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -7538,10 +7630,10 @@
         <v>12800</v>
       </c>
       <c r="C10" s="2">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -7555,10 +7647,10 @@
         <v>5600</v>
       </c>
       <c r="C11" s="2">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -7572,10 +7664,10 @@
         <v>11200</v>
       </c>
       <c r="C12" s="2">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -7589,10 +7681,10 @@
         <v>33600</v>
       </c>
       <c r="C13" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -7606,10 +7698,10 @@
         <v>44800</v>
       </c>
       <c r="C14" s="2">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -7623,10 +7715,10 @@
         <v>89600</v>
       </c>
       <c r="C15" s="2">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
-        <v>259</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -7640,10 +7732,10 @@
         <v>22400</v>
       </c>
       <c r="C16" s="2">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -7657,10 +7749,10 @@
         <v>44800</v>
       </c>
       <c r="C17" s="2">
-        <v>176</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2">
-        <v>330</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -7674,10 +7766,10 @@
         <v>134400</v>
       </c>
       <c r="C18" s="2">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2">
-        <v>389</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -7691,10 +7783,10 @@
         <v>179200</v>
       </c>
       <c r="C19" s="2">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -7708,10 +7800,10 @@
         <v>358400</v>
       </c>
       <c r="C20" s="2">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2">
-        <v>538</v>
+        <v>153</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -7725,10 +7817,10 @@
         <v>716800</v>
       </c>
       <c r="C21" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2">
-        <v>633</v>
+        <v>180</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -7918,7 +8010,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E21"/>
+      <selection activeCell="D21" sqref="C2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7952,10 +8044,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -7969,10 +8061,10 @@
         <v>200</v>
       </c>
       <c r="C3" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -7986,10 +8078,10 @@
         <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -8003,10 +8095,10 @@
         <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -8020,10 +8112,10 @@
         <v>2400</v>
       </c>
       <c r="C6" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -8037,10 +8129,10 @@
         <v>1600</v>
       </c>
       <c r="C7" s="2">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -8054,10 +8146,10 @@
         <v>3200</v>
       </c>
       <c r="C8" s="2">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -8071,10 +8163,10 @@
         <v>9600</v>
       </c>
       <c r="C9" s="2">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -8088,10 +8180,10 @@
         <v>12800</v>
       </c>
       <c r="C10" s="2">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -8105,10 +8197,10 @@
         <v>5600</v>
       </c>
       <c r="C11" s="2">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -8122,10 +8214,10 @@
         <v>11200</v>
       </c>
       <c r="C12" s="2">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -8139,10 +8231,10 @@
         <v>33600</v>
       </c>
       <c r="C13" s="2">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -8156,10 +8248,10 @@
         <v>44800</v>
       </c>
       <c r="C14" s="2">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -8173,10 +8265,10 @@
         <v>89600</v>
       </c>
       <c r="C15" s="2">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -8190,10 +8282,10 @@
         <v>22400</v>
       </c>
       <c r="C16" s="2">
-        <v>299</v>
-      </c>
-      <c r="D16" s="2">
-        <v>210</v>
+        <v>70</v>
+      </c>
+      <c r="D16" s="5">
+        <v>60</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -8207,10 +8299,10 @@
         <v>44800</v>
       </c>
       <c r="C17" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -8223,11 +8315,11 @@
       <c r="B18" s="4">
         <v>134400</v>
       </c>
-      <c r="C18" s="5">
-        <v>415</v>
-      </c>
-      <c r="D18" s="5">
-        <v>291</v>
+      <c r="C18" s="2">
+        <v>96</v>
+      </c>
+      <c r="D18" s="2">
+        <v>83</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -8241,10 +8333,10 @@
         <v>179200</v>
       </c>
       <c r="C19" s="2">
-        <v>488</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2">
-        <v>343</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -8258,10 +8350,10 @@
         <v>358400</v>
       </c>
       <c r="C20" s="2">
-        <v>574</v>
+        <v>133</v>
       </c>
       <c r="D20" s="2">
-        <v>403</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -8275,10 +8367,10 @@
         <v>716800</v>
       </c>
       <c r="C21" s="2">
-        <v>675</v>
+        <v>156</v>
       </c>
       <c r="D21" s="2">
-        <v>475</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -8571,7 +8663,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E21"/>
+      <selection activeCell="C2" sqref="C2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8605,10 +8697,10 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -8622,10 +8714,10 @@
         <v>200</v>
       </c>
       <c r="C3" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -8639,10 +8731,10 @@
         <v>400</v>
       </c>
       <c r="C4" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -8656,10 +8748,10 @@
         <v>800</v>
       </c>
       <c r="C5" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -8673,10 +8765,10 @@
         <v>2400</v>
       </c>
       <c r="C6" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -8690,10 +8782,10 @@
         <v>1600</v>
       </c>
       <c r="C7" s="2">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -8707,10 +8799,10 @@
         <v>3200</v>
       </c>
       <c r="C8" s="2">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -8724,10 +8816,10 @@
         <v>9600</v>
       </c>
       <c r="C9" s="2">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -8741,10 +8833,10 @@
         <v>12800</v>
       </c>
       <c r="C10" s="2">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -8758,10 +8850,10 @@
         <v>5600</v>
       </c>
       <c r="C11" s="2">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -8775,10 +8867,10 @@
         <v>11200</v>
       </c>
       <c r="C12" s="2">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -8792,10 +8884,10 @@
         <v>33600</v>
       </c>
       <c r="C13" s="2">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -8809,10 +8901,10 @@
         <v>44800</v>
       </c>
       <c r="C14" s="2">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -8826,10 +8918,10 @@
         <v>89600</v>
       </c>
       <c r="C15" s="2">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2">
-        <v>194</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -8843,10 +8935,10 @@
         <v>22400</v>
       </c>
       <c r="C16" s="2">
-        <v>299</v>
-      </c>
-      <c r="D16" s="2">
-        <v>210</v>
+        <v>70</v>
+      </c>
+      <c r="D16" s="5">
+        <v>60</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -8860,10 +8952,10 @@
         <v>44800</v>
       </c>
       <c r="C17" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -8876,11 +8968,11 @@
       <c r="B18" s="4">
         <v>134400</v>
       </c>
-      <c r="C18" s="5">
-        <v>415</v>
-      </c>
-      <c r="D18" s="5">
-        <v>291</v>
+      <c r="C18" s="2">
+        <v>96</v>
+      </c>
+      <c r="D18" s="2">
+        <v>83</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -8894,10 +8986,10 @@
         <v>179200</v>
       </c>
       <c r="C19" s="2">
-        <v>488</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2">
-        <v>343</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -8911,10 +9003,10 @@
         <v>358400</v>
       </c>
       <c r="C20" s="2">
-        <v>574</v>
+        <v>133</v>
       </c>
       <c r="D20" s="2">
-        <v>403</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -8928,10 +9020,10 @@
         <v>716800</v>
       </c>
       <c r="C21" s="2">
-        <v>675</v>
+        <v>156</v>
       </c>
       <c r="D21" s="2">
-        <v>475</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -9384,7 +9476,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9421,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -9438,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -9455,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -9472,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -9489,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -9506,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -9523,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -9540,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -9557,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>397</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -9574,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>468</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -9591,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>550</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -9608,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>648</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -9625,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>702</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -9642,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>826</v>
+        <v>156</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -9659,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>972</v>
+        <v>184</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -9676,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>1144</v>
+        <v>216</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -9693,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>1346</v>
+        <v>254</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -9710,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>1584</v>
+        <v>300</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -10002,8 +10094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10039,7 +10131,7 @@
         <v>400</v>
       </c>
       <c r="C2" s="2">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -10056,7 +10148,7 @@
         <v>800</v>
       </c>
       <c r="C3" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -10073,7 +10165,7 @@
         <v>2400</v>
       </c>
       <c r="C4" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -10090,7 +10182,7 @@
         <v>1600</v>
       </c>
       <c r="C5" s="2">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -10107,7 +10199,7 @@
         <v>3200</v>
       </c>
       <c r="C6" s="2">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -10124,7 +10216,7 @@
         <v>9600</v>
       </c>
       <c r="C7" s="2">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -10141,7 +10233,7 @@
         <v>12800</v>
       </c>
       <c r="C8" s="2">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -10158,7 +10250,7 @@
         <v>5600</v>
       </c>
       <c r="C9" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -10175,7 +10267,7 @@
         <v>11200</v>
       </c>
       <c r="C10" s="2">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -10192,7 +10284,7 @@
         <v>33600</v>
       </c>
       <c r="C11" s="2">
-        <v>332</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -10209,7 +10301,7 @@
         <v>44800</v>
       </c>
       <c r="C12" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -10226,7 +10318,7 @@
         <v>89600</v>
       </c>
       <c r="C13" s="2">
-        <v>460</v>
+        <v>96</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -10243,7 +10335,7 @@
         <v>22400</v>
       </c>
       <c r="C14" s="2">
-        <v>499</v>
+        <v>116</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -10260,7 +10352,7 @@
         <v>44800</v>
       </c>
       <c r="C15" s="2">
-        <v>587</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -10277,7 +10369,7 @@
         <v>134400</v>
       </c>
       <c r="C16" s="2">
-        <v>691</v>
+        <v>160</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -10294,7 +10386,7 @@
         <v>179200</v>
       </c>
       <c r="C17" s="2">
-        <v>813</v>
+        <v>188</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -10311,7 +10403,7 @@
         <v>358400</v>
       </c>
       <c r="C18" s="2">
-        <v>957</v>
+        <v>221</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -10328,7 +10420,7 @@
         <v>716800</v>
       </c>
       <c r="C19" s="2">
-        <v>1126</v>
+        <v>260</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -10624,7 +10716,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E19"/>
+      <selection activeCell="E2" sqref="E2:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10664,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -10681,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -10698,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -10715,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -10732,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>96</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -10749,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>120</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -10766,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -10783,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>169</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -10800,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>211</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -10817,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>264</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -10834,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>331</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -10851,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>414</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -10868,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>439</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -10885,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>516</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -10902,7 +10994,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>607</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -10919,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>715</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -10936,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>841</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -10953,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>990</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
